--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75E34670-517F-3A48-A0EE-A873A31D8AEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C434692-EDDA-9748-919D-CD193BC602A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52700" yWindow="7360" windowWidth="18520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52100" yWindow="9160" windowWidth="34740" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NC_011083.1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="348">
   <si>
     <t>heidelberg-01</t>
   </si>
@@ -384,10 +384,694 @@
     <t>heidelberg-02</t>
   </si>
   <si>
-    <t>2387477</t>
-  </si>
-  <si>
     <t>2381560</t>
+  </si>
+  <si>
+    <t>3381801</t>
+  </si>
+  <si>
+    <t>380497</t>
+  </si>
+  <si>
+    <t>3400890</t>
+  </si>
+  <si>
+    <t>3401160</t>
+  </si>
+  <si>
+    <t>1010461</t>
+  </si>
+  <si>
+    <t>3379939</t>
+  </si>
+  <si>
+    <t>3434665</t>
+  </si>
+  <si>
+    <t>3401094</t>
+  </si>
+  <si>
+    <t>3535241</t>
+  </si>
+  <si>
+    <t>3389115</t>
+  </si>
+  <si>
+    <t>3401169</t>
+  </si>
+  <si>
+    <t>3379970</t>
+  </si>
+  <si>
+    <t>3401001</t>
+  </si>
+  <si>
+    <t>3401041</t>
+  </si>
+  <si>
+    <t>2980544</t>
+  </si>
+  <si>
+    <t>2458868</t>
+  </si>
+  <si>
+    <t>3401360</t>
+  </si>
+  <si>
+    <t>3380375</t>
+  </si>
+  <si>
+    <t>3548244</t>
+  </si>
+  <si>
+    <t>3401259</t>
+  </si>
+  <si>
+    <t>3380372</t>
+  </si>
+  <si>
+    <t>61618</t>
+  </si>
+  <si>
+    <t>3401081</t>
+  </si>
+  <si>
+    <t>3401378</t>
+  </si>
+  <si>
+    <t>3535242</t>
+  </si>
+  <si>
+    <t>61666</t>
+  </si>
+  <si>
+    <t>3401248</t>
+  </si>
+  <si>
+    <t>1145110</t>
+  </si>
+  <si>
+    <t>3401142</t>
+  </si>
+  <si>
+    <t>61641</t>
+  </si>
+  <si>
+    <t>3400962</t>
+  </si>
+  <si>
+    <t>1521651</t>
+  </si>
+  <si>
+    <t>3401187</t>
+  </si>
+  <si>
+    <t>3399560</t>
+  </si>
+  <si>
+    <t>3401016</t>
+  </si>
+  <si>
+    <t>3401085</t>
+  </si>
+  <si>
+    <t>3399533</t>
+  </si>
+  <si>
+    <t>169181</t>
+  </si>
+  <si>
+    <t>3399539</t>
+  </si>
+  <si>
+    <t>3387653</t>
+  </si>
+  <si>
+    <t>60952</t>
+  </si>
+  <si>
+    <t>3535245</t>
+  </si>
+  <si>
+    <t>380439</t>
+  </si>
+  <si>
+    <t>196635</t>
+  </si>
+  <si>
+    <t>3379943</t>
+  </si>
+  <si>
+    <t>3381799</t>
+  </si>
+  <si>
+    <t>61612</t>
+  </si>
+  <si>
+    <t>2391507</t>
+  </si>
+  <si>
+    <t>1521648</t>
+  </si>
+  <si>
+    <t>3400885</t>
+  </si>
+  <si>
+    <t>2458854</t>
+  </si>
+  <si>
+    <t>3387701</t>
+  </si>
+  <si>
+    <t>3401387</t>
+  </si>
+  <si>
+    <t>3401097</t>
+  </si>
+  <si>
+    <t>3401178</t>
+  </si>
+  <si>
+    <t>3401190</t>
+  </si>
+  <si>
+    <t>3387630</t>
+  </si>
+  <si>
+    <t>3401277</t>
+  </si>
+  <si>
+    <t>3535233</t>
+  </si>
+  <si>
+    <t>3401268</t>
+  </si>
+  <si>
+    <t>3401103</t>
+  </si>
+  <si>
+    <t>3400986</t>
+  </si>
+  <si>
+    <t>3401179</t>
+  </si>
+  <si>
+    <t>3387631</t>
+  </si>
+  <si>
+    <t>3401089</t>
+  </si>
+  <si>
+    <t>3399554</t>
+  </si>
+  <si>
+    <t>379943</t>
+  </si>
+  <si>
+    <t>3389076</t>
+  </si>
+  <si>
+    <t>3389106</t>
+  </si>
+  <si>
+    <t>3401359</t>
+  </si>
+  <si>
+    <t>3401191</t>
+  </si>
+  <si>
+    <t>3535635</t>
+  </si>
+  <si>
+    <t>3535251</t>
+  </si>
+  <si>
+    <t>380503</t>
+  </si>
+  <si>
+    <t>381515</t>
+  </si>
+  <si>
+    <t>470395</t>
+  </si>
+  <si>
+    <t>380505</t>
+  </si>
+  <si>
+    <t>379957</t>
+  </si>
+  <si>
+    <t>380499</t>
+  </si>
+  <si>
+    <t>3389109</t>
+  </si>
+  <si>
+    <t>61615</t>
+  </si>
+  <si>
+    <t>3400923</t>
+  </si>
+  <si>
+    <t>1544675</t>
+  </si>
+  <si>
+    <t>3389138</t>
+  </si>
+  <si>
+    <t>3387629</t>
+  </si>
+  <si>
+    <t>741607</t>
+  </si>
+  <si>
+    <t>1545815</t>
+  </si>
+  <si>
+    <t>3400908</t>
+  </si>
+  <si>
+    <t>3401280</t>
+  </si>
+  <si>
+    <t>60967</t>
+  </si>
+  <si>
+    <t>3380012</t>
+  </si>
+  <si>
+    <t>2391490</t>
+  </si>
+  <si>
+    <t>3380390</t>
+  </si>
+  <si>
+    <t>3389127</t>
+  </si>
+  <si>
+    <t>4352792</t>
+  </si>
+  <si>
+    <t>3398958</t>
+  </si>
+  <si>
+    <t>3396899</t>
+  </si>
+  <si>
+    <t>3401250</t>
+  </si>
+  <si>
+    <t>3389094</t>
+  </si>
+  <si>
+    <t>60950</t>
+  </si>
+  <si>
+    <t>61594</t>
+  </si>
+  <si>
+    <t>3401038</t>
+  </si>
+  <si>
+    <t>61621</t>
+  </si>
+  <si>
+    <t>3380008</t>
+  </si>
+  <si>
+    <t>3400893</t>
+  </si>
+  <si>
+    <t>3535660</t>
+  </si>
+  <si>
+    <t>3389091</t>
+  </si>
+  <si>
+    <t>3401175</t>
+  </si>
+  <si>
+    <t>3401485</t>
+  </si>
+  <si>
+    <t>1545818</t>
+  </si>
+  <si>
+    <t>3389085</t>
+  </si>
+  <si>
+    <t>1693791</t>
+  </si>
+  <si>
+    <t>3535239</t>
+  </si>
+  <si>
+    <t>3381784</t>
+  </si>
+  <si>
+    <t>3401253</t>
+  </si>
+  <si>
+    <t>599469</t>
+  </si>
+  <si>
+    <t>3401046</t>
+  </si>
+  <si>
+    <t>3379999</t>
+  </si>
+  <si>
+    <t>3401025</t>
+  </si>
+  <si>
+    <t>3401148</t>
+  </si>
+  <si>
+    <t>3401064</t>
+  </si>
+  <si>
+    <t>3400917</t>
+  </si>
+  <si>
+    <t>2679408</t>
+  </si>
+  <si>
+    <t>3535191</t>
+  </si>
+  <si>
+    <t>3401118</t>
+  </si>
+  <si>
+    <t>3379991</t>
+  </si>
+  <si>
+    <t>3401124</t>
+  </si>
+  <si>
+    <t>1551970</t>
+  </si>
+  <si>
+    <t>3389125</t>
+  </si>
+  <si>
+    <t>380493</t>
+  </si>
+  <si>
+    <t>3535596</t>
+  </si>
+  <si>
+    <t>380491</t>
+  </si>
+  <si>
+    <t>379948</t>
+  </si>
+  <si>
+    <t>3401067</t>
+  </si>
+  <si>
+    <t>2679421</t>
+  </si>
+  <si>
+    <t>3401476</t>
+  </si>
+  <si>
+    <t>3379940</t>
+  </si>
+  <si>
+    <t>1010468</t>
+  </si>
+  <si>
+    <t>3401244</t>
+  </si>
+  <si>
+    <t>3401002</t>
+  </si>
+  <si>
+    <t>3389118</t>
+  </si>
+  <si>
+    <t>3535662</t>
+  </si>
+  <si>
+    <t>380477</t>
+  </si>
+  <si>
+    <t>3401083</t>
+  </si>
+  <si>
+    <t>2276478</t>
+  </si>
+  <si>
+    <t>61651</t>
+  </si>
+  <si>
+    <t>3400944</t>
+  </si>
+  <si>
+    <t>3400920</t>
+  </si>
+  <si>
+    <t>3401109</t>
+  </si>
+  <si>
+    <t>3401199</t>
+  </si>
+  <si>
+    <t>4007567</t>
+  </si>
+  <si>
+    <t>3401073</t>
+  </si>
+  <si>
+    <t>3827243</t>
+  </si>
+  <si>
+    <t>3400926</t>
+  </si>
+  <si>
+    <t>380476</t>
+  </si>
+  <si>
+    <t>3400968</t>
+  </si>
+  <si>
+    <t>3379988</t>
+  </si>
+  <si>
+    <t>3401193</t>
+  </si>
+  <si>
+    <t>3401256</t>
+  </si>
+  <si>
+    <t>3387644</t>
+  </si>
+  <si>
+    <t>3401133</t>
+  </si>
+  <si>
+    <t>3401005</t>
+  </si>
+  <si>
+    <t>3380003</t>
+  </si>
+  <si>
+    <t>3400980</t>
+  </si>
+  <si>
+    <t>3400971</t>
+  </si>
+  <si>
+    <t>3401049</t>
+  </si>
+  <si>
+    <t>3380000</t>
+  </si>
+  <si>
+    <t>3401166</t>
+  </si>
+  <si>
+    <t>3380378</t>
+  </si>
+  <si>
+    <t>3400998</t>
+  </si>
+  <si>
+    <t>4352836</t>
+  </si>
+  <si>
+    <t>3389088</t>
+  </si>
+  <si>
+    <t>3400953</t>
+  </si>
+  <si>
+    <t>3401196</t>
+  </si>
+  <si>
+    <t>4528791</t>
+  </si>
+  <si>
+    <t>380445</t>
+  </si>
+  <si>
+    <t>3401091</t>
+  </si>
+  <si>
+    <t>3535179</t>
+  </si>
+  <si>
+    <t>2005853</t>
+  </si>
+  <si>
+    <t>1550014</t>
+  </si>
+  <si>
+    <t>3371185</t>
+  </si>
+  <si>
+    <t>3380366</t>
+  </si>
+  <si>
+    <t>3389075</t>
+  </si>
+  <si>
+    <t>3401136</t>
+  </si>
+  <si>
+    <t>3535656</t>
+  </si>
+  <si>
+    <t>3401121</t>
+  </si>
+  <si>
+    <t>3389124</t>
+  </si>
+  <si>
+    <t>3401058</t>
+  </si>
+  <si>
+    <t>907446</t>
+  </si>
+  <si>
+    <t>188918</t>
+  </si>
+  <si>
+    <t>1545821</t>
+  </si>
+  <si>
+    <t>1626993</t>
+  </si>
+  <si>
+    <t>188917</t>
+  </si>
+  <si>
+    <t>3389082</t>
+  </si>
+  <si>
+    <t>379953</t>
+  </si>
+  <si>
+    <t>3401088</t>
+  </si>
+  <si>
+    <t>3371273</t>
+  </si>
+  <si>
+    <t>3400995</t>
+  </si>
+  <si>
+    <t>3535605</t>
+  </si>
+  <si>
+    <t>3389139</t>
+  </si>
+  <si>
+    <t>3401034</t>
+  </si>
+  <si>
+    <t>3379965</t>
+  </si>
+  <si>
+    <t>61624</t>
+  </si>
+  <si>
+    <t>3379966</t>
+  </si>
+  <si>
+    <t>1462863</t>
+  </si>
+  <si>
+    <t>1521654</t>
+  </si>
+  <si>
+    <t>1545827</t>
+  </si>
+  <si>
+    <t>61654</t>
+  </si>
+  <si>
+    <t>60965</t>
+  </si>
+  <si>
+    <t>3380009</t>
+  </si>
+  <si>
+    <t>3398969</t>
+  </si>
+  <si>
+    <t>3379978</t>
+  </si>
+  <si>
+    <t>3401022</t>
+  </si>
+  <si>
+    <t>61642</t>
+  </si>
+  <si>
+    <t>61623</t>
+  </si>
+  <si>
+    <t>380469</t>
+  </si>
+  <si>
+    <t>4635805</t>
+  </si>
+  <si>
+    <t>3400951</t>
+  </si>
+  <si>
+    <t>3379949</t>
+  </si>
+  <si>
+    <t>3396926</t>
+  </si>
+  <si>
+    <t>3401172</t>
+  </si>
+  <si>
+    <t>3387638</t>
+  </si>
+  <si>
+    <t>3401112</t>
+  </si>
+  <si>
+    <t>1545831</t>
+  </si>
+  <si>
+    <t>1999821</t>
+  </si>
+  <si>
+    <t>4635796</t>
+  </si>
+  <si>
+    <t>1524208</t>
+  </si>
+  <si>
+    <t>1524217</t>
+  </si>
+  <si>
+    <t>1524223</t>
   </si>
 </sst>
 </file>
@@ -1774,10 +2458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1801,589 +2485,1773 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>159</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>327</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>208</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>219</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>165</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>199</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>140</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>221</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>333</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>321</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>148</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>332</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>264</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>37</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>56</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>70</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>73</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>96</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>98</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>99</v>
+        <v>342</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B2:B20">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75E34670-517F-3A48-A0EE-A873A31D8AEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B12C821-400A-BB49-8A34-27AE40ADEA1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52700" yWindow="7360" windowWidth="18520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="2560" windowWidth="34740" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NC_011083.1" sheetId="2" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
-  <si>
-    <t>heidelberg-01</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>heidelberg-All</t>
   </si>
@@ -384,10 +381,691 @@
     <t>heidelberg-02</t>
   </si>
   <si>
-    <t>2387477</t>
-  </si>
-  <si>
-    <t>2381560</t>
+    <t>3381801</t>
+  </si>
+  <si>
+    <t>380497</t>
+  </si>
+  <si>
+    <t>3400890</t>
+  </si>
+  <si>
+    <t>3401160</t>
+  </si>
+  <si>
+    <t>1010461</t>
+  </si>
+  <si>
+    <t>3379939</t>
+  </si>
+  <si>
+    <t>3434665</t>
+  </si>
+  <si>
+    <t>3401094</t>
+  </si>
+  <si>
+    <t>3535241</t>
+  </si>
+  <si>
+    <t>3389115</t>
+  </si>
+  <si>
+    <t>3401169</t>
+  </si>
+  <si>
+    <t>3379970</t>
+  </si>
+  <si>
+    <t>3401001</t>
+  </si>
+  <si>
+    <t>3401041</t>
+  </si>
+  <si>
+    <t>2980544</t>
+  </si>
+  <si>
+    <t>2458868</t>
+  </si>
+  <si>
+    <t>3401360</t>
+  </si>
+  <si>
+    <t>3380375</t>
+  </si>
+  <si>
+    <t>3548244</t>
+  </si>
+  <si>
+    <t>3401259</t>
+  </si>
+  <si>
+    <t>3380372</t>
+  </si>
+  <si>
+    <t>61618</t>
+  </si>
+  <si>
+    <t>3401081</t>
+  </si>
+  <si>
+    <t>3401378</t>
+  </si>
+  <si>
+    <t>3535242</t>
+  </si>
+  <si>
+    <t>61666</t>
+  </si>
+  <si>
+    <t>3401248</t>
+  </si>
+  <si>
+    <t>1145110</t>
+  </si>
+  <si>
+    <t>3401142</t>
+  </si>
+  <si>
+    <t>61641</t>
+  </si>
+  <si>
+    <t>3400962</t>
+  </si>
+  <si>
+    <t>1521651</t>
+  </si>
+  <si>
+    <t>3401187</t>
+  </si>
+  <si>
+    <t>3399560</t>
+  </si>
+  <si>
+    <t>3401016</t>
+  </si>
+  <si>
+    <t>3401085</t>
+  </si>
+  <si>
+    <t>3399533</t>
+  </si>
+  <si>
+    <t>169181</t>
+  </si>
+  <si>
+    <t>3399539</t>
+  </si>
+  <si>
+    <t>3387653</t>
+  </si>
+  <si>
+    <t>60952</t>
+  </si>
+  <si>
+    <t>3535245</t>
+  </si>
+  <si>
+    <t>380439</t>
+  </si>
+  <si>
+    <t>196635</t>
+  </si>
+  <si>
+    <t>3379943</t>
+  </si>
+  <si>
+    <t>3381799</t>
+  </si>
+  <si>
+    <t>61612</t>
+  </si>
+  <si>
+    <t>2391507</t>
+  </si>
+  <si>
+    <t>1521648</t>
+  </si>
+  <si>
+    <t>3400885</t>
+  </si>
+  <si>
+    <t>2458854</t>
+  </si>
+  <si>
+    <t>3387701</t>
+  </si>
+  <si>
+    <t>3401387</t>
+  </si>
+  <si>
+    <t>3401097</t>
+  </si>
+  <si>
+    <t>3401178</t>
+  </si>
+  <si>
+    <t>3401190</t>
+  </si>
+  <si>
+    <t>3387630</t>
+  </si>
+  <si>
+    <t>3401277</t>
+  </si>
+  <si>
+    <t>3535233</t>
+  </si>
+  <si>
+    <t>3401268</t>
+  </si>
+  <si>
+    <t>3401103</t>
+  </si>
+  <si>
+    <t>3400986</t>
+  </si>
+  <si>
+    <t>3401179</t>
+  </si>
+  <si>
+    <t>3387631</t>
+  </si>
+  <si>
+    <t>3401089</t>
+  </si>
+  <si>
+    <t>3399554</t>
+  </si>
+  <si>
+    <t>379943</t>
+  </si>
+  <si>
+    <t>3389076</t>
+  </si>
+  <si>
+    <t>3389106</t>
+  </si>
+  <si>
+    <t>3401359</t>
+  </si>
+  <si>
+    <t>3401191</t>
+  </si>
+  <si>
+    <t>3535635</t>
+  </si>
+  <si>
+    <t>3535251</t>
+  </si>
+  <si>
+    <t>380503</t>
+  </si>
+  <si>
+    <t>381515</t>
+  </si>
+  <si>
+    <t>470395</t>
+  </si>
+  <si>
+    <t>380505</t>
+  </si>
+  <si>
+    <t>379957</t>
+  </si>
+  <si>
+    <t>380499</t>
+  </si>
+  <si>
+    <t>3389109</t>
+  </si>
+  <si>
+    <t>61615</t>
+  </si>
+  <si>
+    <t>3400923</t>
+  </si>
+  <si>
+    <t>1544675</t>
+  </si>
+  <si>
+    <t>3389138</t>
+  </si>
+  <si>
+    <t>3387629</t>
+  </si>
+  <si>
+    <t>741607</t>
+  </si>
+  <si>
+    <t>1545815</t>
+  </si>
+  <si>
+    <t>3400908</t>
+  </si>
+  <si>
+    <t>3401280</t>
+  </si>
+  <si>
+    <t>60967</t>
+  </si>
+  <si>
+    <t>3380012</t>
+  </si>
+  <si>
+    <t>2391490</t>
+  </si>
+  <si>
+    <t>3380390</t>
+  </si>
+  <si>
+    <t>3389127</t>
+  </si>
+  <si>
+    <t>4352792</t>
+  </si>
+  <si>
+    <t>3398958</t>
+  </si>
+  <si>
+    <t>3396899</t>
+  </si>
+  <si>
+    <t>3401250</t>
+  </si>
+  <si>
+    <t>3389094</t>
+  </si>
+  <si>
+    <t>60950</t>
+  </si>
+  <si>
+    <t>61594</t>
+  </si>
+  <si>
+    <t>3401038</t>
+  </si>
+  <si>
+    <t>61621</t>
+  </si>
+  <si>
+    <t>3380008</t>
+  </si>
+  <si>
+    <t>3400893</t>
+  </si>
+  <si>
+    <t>3535660</t>
+  </si>
+  <si>
+    <t>3389091</t>
+  </si>
+  <si>
+    <t>3401175</t>
+  </si>
+  <si>
+    <t>3401485</t>
+  </si>
+  <si>
+    <t>1545818</t>
+  </si>
+  <si>
+    <t>3389085</t>
+  </si>
+  <si>
+    <t>1693791</t>
+  </si>
+  <si>
+    <t>3535239</t>
+  </si>
+  <si>
+    <t>3381784</t>
+  </si>
+  <si>
+    <t>3401253</t>
+  </si>
+  <si>
+    <t>599469</t>
+  </si>
+  <si>
+    <t>3401046</t>
+  </si>
+  <si>
+    <t>3379999</t>
+  </si>
+  <si>
+    <t>3401025</t>
+  </si>
+  <si>
+    <t>3401148</t>
+  </si>
+  <si>
+    <t>3401064</t>
+  </si>
+  <si>
+    <t>3400917</t>
+  </si>
+  <si>
+    <t>2679408</t>
+  </si>
+  <si>
+    <t>3535191</t>
+  </si>
+  <si>
+    <t>3401118</t>
+  </si>
+  <si>
+    <t>3379991</t>
+  </si>
+  <si>
+    <t>3401124</t>
+  </si>
+  <si>
+    <t>1551970</t>
+  </si>
+  <si>
+    <t>3389125</t>
+  </si>
+  <si>
+    <t>380493</t>
+  </si>
+  <si>
+    <t>3535596</t>
+  </si>
+  <si>
+    <t>380491</t>
+  </si>
+  <si>
+    <t>379948</t>
+  </si>
+  <si>
+    <t>3401067</t>
+  </si>
+  <si>
+    <t>2679421</t>
+  </si>
+  <si>
+    <t>3401476</t>
+  </si>
+  <si>
+    <t>3379940</t>
+  </si>
+  <si>
+    <t>1010468</t>
+  </si>
+  <si>
+    <t>3401244</t>
+  </si>
+  <si>
+    <t>3401002</t>
+  </si>
+  <si>
+    <t>3389118</t>
+  </si>
+  <si>
+    <t>3535662</t>
+  </si>
+  <si>
+    <t>380477</t>
+  </si>
+  <si>
+    <t>3401083</t>
+  </si>
+  <si>
+    <t>2276478</t>
+  </si>
+  <si>
+    <t>61651</t>
+  </si>
+  <si>
+    <t>3400944</t>
+  </si>
+  <si>
+    <t>3400920</t>
+  </si>
+  <si>
+    <t>3401109</t>
+  </si>
+  <si>
+    <t>3401199</t>
+  </si>
+  <si>
+    <t>4007567</t>
+  </si>
+  <si>
+    <t>3401073</t>
+  </si>
+  <si>
+    <t>3827243</t>
+  </si>
+  <si>
+    <t>3400926</t>
+  </si>
+  <si>
+    <t>380476</t>
+  </si>
+  <si>
+    <t>3400968</t>
+  </si>
+  <si>
+    <t>3379988</t>
+  </si>
+  <si>
+    <t>3401193</t>
+  </si>
+  <si>
+    <t>3401256</t>
+  </si>
+  <si>
+    <t>3387644</t>
+  </si>
+  <si>
+    <t>3401133</t>
+  </si>
+  <si>
+    <t>3401005</t>
+  </si>
+  <si>
+    <t>3380003</t>
+  </si>
+  <si>
+    <t>3400980</t>
+  </si>
+  <si>
+    <t>3400971</t>
+  </si>
+  <si>
+    <t>3401049</t>
+  </si>
+  <si>
+    <t>3380000</t>
+  </si>
+  <si>
+    <t>3401166</t>
+  </si>
+  <si>
+    <t>3380378</t>
+  </si>
+  <si>
+    <t>3400998</t>
+  </si>
+  <si>
+    <t>4352836</t>
+  </si>
+  <si>
+    <t>3389088</t>
+  </si>
+  <si>
+    <t>3400953</t>
+  </si>
+  <si>
+    <t>3401196</t>
+  </si>
+  <si>
+    <t>4528791</t>
+  </si>
+  <si>
+    <t>380445</t>
+  </si>
+  <si>
+    <t>3401091</t>
+  </si>
+  <si>
+    <t>3535179</t>
+  </si>
+  <si>
+    <t>2005853</t>
+  </si>
+  <si>
+    <t>1550014</t>
+  </si>
+  <si>
+    <t>3371185</t>
+  </si>
+  <si>
+    <t>3380366</t>
+  </si>
+  <si>
+    <t>3389075</t>
+  </si>
+  <si>
+    <t>3401136</t>
+  </si>
+  <si>
+    <t>3535656</t>
+  </si>
+  <si>
+    <t>3401121</t>
+  </si>
+  <si>
+    <t>3389124</t>
+  </si>
+  <si>
+    <t>3401058</t>
+  </si>
+  <si>
+    <t>907446</t>
+  </si>
+  <si>
+    <t>188918</t>
+  </si>
+  <si>
+    <t>1545821</t>
+  </si>
+  <si>
+    <t>1626993</t>
+  </si>
+  <si>
+    <t>188917</t>
+  </si>
+  <si>
+    <t>3389082</t>
+  </si>
+  <si>
+    <t>379953</t>
+  </si>
+  <si>
+    <t>3401088</t>
+  </si>
+  <si>
+    <t>3371273</t>
+  </si>
+  <si>
+    <t>3400995</t>
+  </si>
+  <si>
+    <t>3535605</t>
+  </si>
+  <si>
+    <t>3389139</t>
+  </si>
+  <si>
+    <t>3401034</t>
+  </si>
+  <si>
+    <t>3379965</t>
+  </si>
+  <si>
+    <t>61624</t>
+  </si>
+  <si>
+    <t>3379966</t>
+  </si>
+  <si>
+    <t>1462863</t>
+  </si>
+  <si>
+    <t>1521654</t>
+  </si>
+  <si>
+    <t>1545827</t>
+  </si>
+  <si>
+    <t>61654</t>
+  </si>
+  <si>
+    <t>60965</t>
+  </si>
+  <si>
+    <t>3380009</t>
+  </si>
+  <si>
+    <t>3398969</t>
+  </si>
+  <si>
+    <t>3379978</t>
+  </si>
+  <si>
+    <t>3401022</t>
+  </si>
+  <si>
+    <t>61642</t>
+  </si>
+  <si>
+    <t>61623</t>
+  </si>
+  <si>
+    <t>380469</t>
+  </si>
+  <si>
+    <t>4635805</t>
+  </si>
+  <si>
+    <t>3400951</t>
+  </si>
+  <si>
+    <t>3379949</t>
+  </si>
+  <si>
+    <t>3396926</t>
+  </si>
+  <si>
+    <t>3401172</t>
+  </si>
+  <si>
+    <t>3387638</t>
+  </si>
+  <si>
+    <t>3401112</t>
+  </si>
+  <si>
+    <t>1545831</t>
+  </si>
+  <si>
+    <t>1999821</t>
+  </si>
+  <si>
+    <t>4635796</t>
+  </si>
+  <si>
+    <t>heidelberg-01-A</t>
+  </si>
+  <si>
+    <t>heidelberg-01-B</t>
+  </si>
+  <si>
+    <t>heidelberg-03</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1818,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1150,13 +1828,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="279">
     <cellStyle name="20% - Accent1" xfId="148" builtinId="30" customBuiltin="1"/>
@@ -1774,614 +2445,1741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:E342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>37</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>73</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>97</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>98</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>99</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>106</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>109</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>116</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
+      <c r="A117" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C434692-EDDA-9748-919D-CD193BC602A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B0D2B-AAE2-6E40-B8C7-0ACE27353F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52100" yWindow="9160" windowWidth="34740" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="2560" windowWidth="34740" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NC_011083.1" sheetId="2" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="348">
-  <si>
-    <t>heidelberg-01</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>heidelberg-All</t>
   </si>
@@ -384,9 +381,6 @@
     <t>heidelberg-02</t>
   </si>
   <si>
-    <t>2381560</t>
-  </si>
-  <si>
     <t>3381801</t>
   </si>
   <si>
@@ -1065,13 +1059,13 @@
     <t>4635796</t>
   </si>
   <si>
-    <t>1524208</t>
-  </si>
-  <si>
-    <t>1524217</t>
-  </si>
-  <si>
-    <t>1524223</t>
+    <t>heidelberg-01-A</t>
+  </si>
+  <si>
+    <t>heidelberg-01-B</t>
+  </si>
+  <si>
+    <t>heidelberg-03</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1818,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1834,13 +1828,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="279">
     <cellStyle name="20% - Accent1" xfId="148" builtinId="30" customBuiltin="1"/>
@@ -2458,1800 +2446,1743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C342"/>
+  <dimension ref="A1:E342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B20">
-    <sortCondition ref="B1"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B0D2B-AAE2-6E40-B8C7-0ACE27353F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29713669-FAFB-0F43-A887-BC2EC255CADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="2560" windowWidth="34740" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="34740" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NC_011083.1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
   <si>
     <t>heidelberg-All</t>
   </si>
@@ -1066,6 +1066,48 @@
   </si>
   <si>
     <t>heidelberg-03</t>
+  </si>
+  <si>
+    <t>4635835</t>
+  </si>
+  <si>
+    <t>4635820</t>
+  </si>
+  <si>
+    <t>4635841</t>
+  </si>
+  <si>
+    <t>4635826</t>
+  </si>
+  <si>
+    <t>4635862</t>
+  </si>
+  <si>
+    <t>4635823</t>
+  </si>
+  <si>
+    <t>4635853</t>
+  </si>
+  <si>
+    <t>heidelberg-01</t>
+  </si>
+  <si>
+    <t>1524223</t>
+  </si>
+  <si>
+    <t>1524217</t>
+  </si>
+  <si>
+    <t>1524208</t>
+  </si>
+  <si>
+    <t>2387477</t>
+  </si>
+  <si>
+    <t>2381560</t>
+  </si>
+  <si>
+    <t>4884909</t>
   </si>
 </sst>
 </file>
@@ -2446,1741 +2488,2115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E342"/>
+  <dimension ref="A1:F342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="20.83203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142" s="4"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143" s="4"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" s="4"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" s="4"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" s="4"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" s="4"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" s="4"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" s="4"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" s="4"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" s="4"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" s="4"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" s="4"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" s="4"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" s="4"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" s="4"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" s="4"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" s="4"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" s="4"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="4"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" s="4"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163" s="4"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164" s="4"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165" s="4"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166" s="4"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167" s="4"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168" s="4"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169" s="4"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170" s="4"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171" s="4"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172" s="4"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173" s="4"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174" s="4"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175" s="4"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176" s="4"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177" s="4"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178" s="4"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179" s="4"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180" s="4"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181" s="4"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182" s="4"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183" s="4"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184" s="4"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185" s="4"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186" s="4"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188" s="4"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189" s="4"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190" s="4"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191" s="4"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192" s="4"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193" s="4"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194" s="4"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195" s="4"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196" s="4"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197" s="4"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198" s="4"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199" s="4"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200" s="4"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B201" s="4"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B203" s="4"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B204" s="4"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B205" s="4"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B206" s="4"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B207" s="4"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B208" s="4"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B209" s="4"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B210" s="4"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B211" s="4"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B212" s="4"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B213" s="4"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B214" s="4"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B215" s="4"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B216" s="4"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B217" s="4"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B218" s="4"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B219" s="4"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B220" s="4"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B221" s="4"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B222" s="4"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B223" s="4"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B224" s="4"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B225" s="4"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B226" s="4"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B227" s="4"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B228" s="4"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B229" s="4"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B230" s="4"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B231" s="4"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B232" s="4"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B233" s="4"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B234" s="4"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B235" s="4"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B236" s="4"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B237" s="4"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B238" s="4"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B239" s="4"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240" s="4"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241" s="4"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B242" s="4"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B243" s="4"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B244" s="4"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B245" s="4"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B246" s="4"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B247" s="4"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B248" s="4"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B249" s="4"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B250" s="4"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B251" s="4"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B252" s="4"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B253" s="4"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B254" s="4"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B255" s="4"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B256" s="4"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B257" s="4"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B258" s="4"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B259" s="4"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B260" s="4"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B261" s="4"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B262" s="4"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B263" s="4"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B264" s="4"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B265" s="4"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B266" s="4"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B267" s="4"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B268" s="4"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B269" s="4"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B270" s="4"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B271" s="4"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B272" s="4"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B273" s="4"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B274" s="4"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B275" s="4"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B276" s="4"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B277" s="4"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B278" s="4"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B279" s="4"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B280" s="4"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B281" s="4"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B282" s="4"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B283" s="4"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B284" s="4"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B285" s="4"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B286" s="4"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B287" s="4"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B288" s="4"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B289" s="4"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B290" s="4"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B291" s="4"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B292" s="4"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B293" s="4"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B294" s="4"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B295" s="4"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B296" s="4"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B297" s="4"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B298" s="4"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B299" s="4"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B300" s="4"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B301" s="4"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B302" s="4"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B303" s="4"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B304" s="4"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B305" s="4"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B306" s="4"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B307" s="4"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B308" s="4"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B309" s="4"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B310" s="4"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B311" s="4"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B312" s="4"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B313" s="4"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B314" s="4"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B315" s="4"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B316" s="4"/>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B317" s="4"/>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B318" s="4"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B319" s="4"/>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B320" s="4"/>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B321" s="4"/>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B322" s="4"/>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B323" s="4"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B324" s="4"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B325" s="4"/>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B326" s="4"/>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B327" s="4"/>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B328" s="4"/>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B329" s="4"/>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B330" s="4"/>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B331" s="4"/>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B332" s="4"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B333" s="4"/>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B334" s="4"/>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B335" s="4"/>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B336" s="4"/>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B337" s="4"/>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B338" s="4"/>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B339" s="4"/>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B340" s="4"/>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B341" s="4"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B342" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29713669-FAFB-0F43-A887-BC2EC255CADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FC9285-1990-C549-957C-4AB46537068E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2280" windowWidth="34740" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t>heidelberg-All</t>
   </si>
@@ -1108,6 +1108,42 @@
   </si>
   <si>
     <t>4884909</t>
+  </si>
+  <si>
+    <t>341675-346381</t>
+  </si>
+  <si>
+    <t>765494-766489</t>
+  </si>
+  <si>
+    <t>1549757-1552492</t>
+  </si>
+  <si>
+    <t>1901530-1903059</t>
+  </si>
+  <si>
+    <t>2609022-2609630</t>
+  </si>
+  <si>
+    <t>2678003-2678334</t>
+  </si>
+  <si>
+    <t>3006047-3007117</t>
+  </si>
+  <si>
+    <t>3051217-3052879</t>
+  </si>
+  <si>
+    <t>3069137-3070263</t>
+  </si>
+  <si>
+    <t>3856458-3857453</t>
+  </si>
+  <si>
+    <t>4184141-4185571</t>
+  </si>
+  <si>
+    <t>4520450-4521139</t>
   </si>
 </sst>
 </file>
@@ -2488,16 +2524,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F342"/>
+  <dimension ref="A1:F354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20.83203125" style="2" customWidth="1"/>
     <col min="3" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2521,8 +2561,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>216</v>
+      <c r="A2" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>346</v>
@@ -2538,8 +2578,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>157</v>
+      <c r="A3" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>347</v>
@@ -2549,8 +2589,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>325</v>
+      <c r="A4" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>348</v>
@@ -2560,8 +2600,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>206</v>
+      <c r="A5" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>349</v>
@@ -2571,2032 +2611,2092 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>217</v>
+      <c r="A6" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>163</v>
+      <c r="A7" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>197</v>
+      <c r="A8" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>138</v>
+      <c r="A9" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>219</v>
+      <c r="A10" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>331</v>
+      <c r="A11" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>319</v>
+      <c r="A12" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>146</v>
+      <c r="A13" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>330</v>
+        <v>216</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>306</v>
+        <v>138</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>110</v>
+        <v>331</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>319</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>311</v>
+        <v>160</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>332</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>248</v>
+        <v>21</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>3</v>
+        <v>332</v>
       </c>
       <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>84</v>
+        <v>305</v>
       </c>
       <c r="B66" s="4"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B67" s="4"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B69" s="4"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>321</v>
+        <v>70</v>
       </c>
       <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="B71" s="4"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="B72" s="4"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>322</v>
+        <v>92</v>
       </c>
       <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B77" s="4"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="B83" s="4"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>307</v>
+        <v>30</v>
       </c>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>340</v>
+        <v>93</v>
       </c>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B104" s="4"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="B109" s="4"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="B110" s="4"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>86</v>
+        <v>340</v>
       </c>
       <c r="B111" s="4"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B112" s="4"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B113" s="4"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B114" s="4"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B115" s="4"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>308</v>
+        <v>56</v>
       </c>
       <c r="B116" s="4"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="B118" s="4"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>341</v>
+        <v>62</v>
       </c>
       <c r="B119" s="4"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>295</v>
+        <v>97</v>
       </c>
       <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="B121" s="4"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="B122" s="4"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B123" s="4"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B124" s="4"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B125" s="4"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B126" s="4"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B127" s="4"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="B128" s="4"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c r="B129" s="4"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B130" s="4"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>100</v>
+        <v>341</v>
       </c>
       <c r="B131" s="4"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>90</v>
+        <v>295</v>
       </c>
       <c r="B132" s="4"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B133" s="4"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="B134" s="4"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B135" s="4"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="B136" s="4"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="B137" s="4"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="B138" s="4"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="B139" s="4"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="B140" s="4"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c r="B141" s="4"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B142" s="4"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B143" s="4"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B144" s="4"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B145" s="4"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="B146" s="4"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="B147" s="4"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="B148" s="4"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="B149" s="4"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="B150" s="4"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="B151" s="4"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="B152" s="4"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="B153" s="4"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B154" s="4"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B155" s="4"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B156" s="4"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B157" s="4"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B158" s="4"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B159" s="4"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B160" s="4"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B161" s="4"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B162" s="4"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B163" s="4"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B164" s="4"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B165" s="4"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B166" s="4"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="B167" s="4"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="B168" s="4"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="B169" s="4"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="B170" s="4"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="B171" s="4"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>335</v>
+        <v>115</v>
       </c>
       <c r="B172" s="4"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="B173" s="4"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="B174" s="4"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="B175" s="4"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="B176" s="4"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="B177" s="4"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="B178" s="4"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="B179" s="4"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="B180" s="4"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>279</v>
+        <v>122</v>
       </c>
       <c r="B181" s="4"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="B182" s="4"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>326</v>
+        <v>161</v>
       </c>
       <c r="B183" s="4"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>207</v>
+        <v>335</v>
       </c>
       <c r="B184" s="4"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B185" s="4"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>137</v>
+        <v>320</v>
       </c>
       <c r="B186" s="4"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B187" s="4"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="B188" s="4"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="B189" s="4"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B190" s="4"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="B191" s="4"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c r="B192" s="4"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="B193" s="4"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="B194" s="4"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="B195" s="4"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="B196" s="4"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B197" s="4"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B198" s="4"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="B199" s="4"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B200" s="4"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B201" s="4"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="B202" s="4"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="B203" s="4"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="B204" s="4"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B205" s="4"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="B206" s="4"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B207" s="4"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>196</v>
+        <v>338</v>
       </c>
       <c r="B208" s="4"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="B209" s="4"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="B210" s="4"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="B211" s="4"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="B212" s="4"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B213" s="4"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="B214" s="4"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="B215" s="4"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="B216" s="4"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>336</v>
+        <v>223</v>
       </c>
       <c r="B217" s="4"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B218" s="4"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
       <c r="B219" s="4"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="B220" s="4"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B221" s="4"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>182</v>
+        <v>257</v>
       </c>
       <c r="B222" s="4"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="B223" s="4"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="B224" s="4"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="B225" s="4"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B226" s="4"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="B227" s="4"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B228" s="4"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="B229" s="4"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B230" s="4"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="B231" s="4"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="B232" s="4"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="B233" s="4"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="B234" s="4"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B235" s="4"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>272</v>
+        <v>166</v>
       </c>
       <c r="B236" s="4"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="B237" s="4"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B238" s="4"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B239" s="4"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="B240" s="4"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B241" s="4"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="B242" s="4"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B243" s="4"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B244" s="4"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>151</v>
+        <v>334</v>
       </c>
       <c r="B245" s="4"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="B246" s="4"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="B248" s="4"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="B249" s="4"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="B250" s="4"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="B251" s="4"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="B252" s="4"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B253" s="4"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="B254" s="4"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B255" s="4"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B256" s="4"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B257" s="4"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="B258" s="4"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="B259" s="4"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B260" s="4"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="B261" s="4"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="B262" s="4"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="B263" s="4"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="B264" s="4"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="B265" s="4"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B266" s="4"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="B267" s="4"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="B268" s="4"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="B269" s="4"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B270" s="4"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>277</v>
+        <v>152</v>
       </c>
       <c r="B271" s="4"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B272" s="4"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="B273" s="4"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="B274" s="4"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B275" s="4"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="B276" s="4"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="B277" s="4"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="B278" s="4"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>224</v>
+        <v>339</v>
       </c>
       <c r="B279" s="4"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="B280" s="4"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="B281" s="4"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="B282" s="4"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="B283" s="4"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="B284" s="4"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>274</v>
+        <v>145</v>
       </c>
       <c r="B285" s="4"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="B286" s="4"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="B287" s="4"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="B288" s="4"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B289" s="4"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="B290" s="4"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B291" s="4"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="B292" s="4"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B293" s="4"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B294" s="4"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B295" s="4"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B296" s="4"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="B297" s="4"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="B298" s="4"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="B299" s="4"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="B300" s="4"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="B301" s="4"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B302" s="4"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="B303" s="4"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="B304" s="4"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="B305" s="4"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B306" s="4"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="B307" s="4"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="B308" s="4"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="B309" s="4"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B310" s="4"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="B311" s="4"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="B312" s="4"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="B313" s="4"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="B314" s="4"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>301</v>
+        <v>123</v>
       </c>
       <c r="B315" s="4"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="B316" s="4"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B317" s="4"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B318" s="4"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="B319" s="4"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
-        <v>269</v>
+        <v>125</v>
       </c>
       <c r="B320" s="4"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="B321" s="4"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="B322" s="4"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="B323" s="4"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="B324" s="4"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="B325" s="4"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="B326" s="4"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
       <c r="B327" s="4"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B328" s="4"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="B329" s="4"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="B330" s="4"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B331" s="4"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="B332" s="4"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="B333" s="4"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B334" s="4"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B335" s="4"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
-        <v>342</v>
+        <v>98</v>
       </c>
       <c r="B336" s="4"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="B337" s="4"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B338" s="4"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B339" s="4"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="B340" s="4"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="B341" s="4"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B342" s="4"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B342" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FC9285-1990-C549-957C-4AB46537068E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEF992C-0D2C-CB44-8455-C1471C192727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2280" windowWidth="34740" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
   <si>
     <t>heidelberg-All</t>
   </si>
@@ -1144,6 +1144,126 @@
   </si>
   <si>
     <t>4520450-4521139</t>
+  </si>
+  <si>
+    <t>862901-864079</t>
+  </si>
+  <si>
+    <t>1058452-1059411</t>
+  </si>
+  <si>
+    <t>1106011-1106796</t>
+  </si>
+  <si>
+    <t>1121778-1123916</t>
+  </si>
+  <si>
+    <t>1124146-1125663</t>
+  </si>
+  <si>
+    <t>1130123-1130521</t>
+  </si>
+  <si>
+    <t>1130518-1130847</t>
+  </si>
+  <si>
+    <t>1130927-1133914</t>
+  </si>
+  <si>
+    <t>1135579-1136274</t>
+  </si>
+  <si>
+    <t>1136284-1137021</t>
+  </si>
+  <si>
+    <t>1143878-1144257</t>
+  </si>
+  <si>
+    <t>1176897-1177445</t>
+  </si>
+  <si>
+    <t>1485514-1485915</t>
+  </si>
+  <si>
+    <t>1828676-1828894</t>
+  </si>
+  <si>
+    <t>1829560-1830228</t>
+  </si>
+  <si>
+    <t>1830399-1831379</t>
+  </si>
+  <si>
+    <t>2012498-2013378</t>
+  </si>
+  <si>
+    <t>2362143-2363699</t>
+  </si>
+  <si>
+    <t>2384172-2384315</t>
+  </si>
+  <si>
+    <t>2384246-2384764</t>
+  </si>
+  <si>
+    <t>2384778-2385107</t>
+  </si>
+  <si>
+    <t>2442288-2443310</t>
+  </si>
+  <si>
+    <t>2904106-2905002</t>
+  </si>
+  <si>
+    <t>3003628-3005409</t>
+  </si>
+  <si>
+    <t>3061879-3062832</t>
+  </si>
+  <si>
+    <t>3379784-3381754</t>
+  </si>
+  <si>
+    <t>3385599-3386105</t>
+  </si>
+  <si>
+    <t>3387557-3388579</t>
+  </si>
+  <si>
+    <t>3388641-3389441</t>
+  </si>
+  <si>
+    <t>3391374-3392435</t>
+  </si>
+  <si>
+    <t>3525867-3526505</t>
+  </si>
+  <si>
+    <t>3570685-3570981</t>
+  </si>
+  <si>
+    <t>4418140-4418772</t>
+  </si>
+  <si>
+    <t>4423557-4424279</t>
+  </si>
+  <si>
+    <t>4426482-4428836</t>
+  </si>
+  <si>
+    <t>4428933-4429061</t>
+  </si>
+  <si>
+    <t>4429021-4429338</t>
+  </si>
+  <si>
+    <t>4429390-4429914</t>
+  </si>
+  <si>
+    <t>4429914-4431341</t>
+  </si>
+  <si>
+    <t>4722360-4722602</t>
   </si>
 </sst>
 </file>
@@ -2524,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F354"/>
+  <dimension ref="A1:F394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2590,7 +2710,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>348</v>
@@ -2601,7 +2721,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>349</v>
@@ -2612,7 +2732,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>350</v>
@@ -2620,7 +2740,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>351</v>
@@ -2628,7 +2748,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>352</v>
@@ -2636,2065 +2756,2265 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>248</v>
+      <c r="A53" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="B66" s="4"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="B67" s="4"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B69" s="4"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B71" s="4"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>1</v>
+        <v>309</v>
       </c>
       <c r="B72" s="4"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B77" s="4"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="B83" s="4"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="B104" s="4"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>307</v>
+        <v>109</v>
       </c>
       <c r="B109" s="4"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>323</v>
+        <v>70</v>
       </c>
       <c r="B110" s="4"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="B111" s="4"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B112" s="4"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B113" s="4"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B114" s="4"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B115" s="4"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B116" s="4"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c r="B118" s="4"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="B119" s="4"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="B121" s="4"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="B122" s="4"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="B123" s="4"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B124" s="4"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="B125" s="4"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B126" s="4"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B127" s="4"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>308</v>
+        <v>113</v>
       </c>
       <c r="B128" s="4"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="B129" s="4"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B130" s="4"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>341</v>
+        <v>199</v>
       </c>
       <c r="B131" s="4"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>295</v>
+        <v>10</v>
       </c>
       <c r="B132" s="4"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B133" s="4"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="B134" s="4"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B135" s="4"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B136" s="4"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B137" s="4"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B138" s="4"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B139" s="4"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B140" s="4"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B141" s="4"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B142" s="4"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B143" s="4"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B144" s="4"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B145" s="4"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B146" s="4"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="B147" s="4"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B148" s="4"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="B149" s="4"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="B150" s="4"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="B151" s="4"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="B152" s="4"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="B153" s="4"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B154" s="4"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B155" s="4"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B156" s="4"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B157" s="4"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="B158" s="4"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B159" s="4"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B160" s="4"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="B161" s="4"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B162" s="4"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B163" s="4"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B164" s="4"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B165" s="4"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B166" s="4"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B167" s="4"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>101</v>
+        <v>308</v>
       </c>
       <c r="B168" s="4"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="B169" s="4"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B170" s="4"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>58</v>
+        <v>341</v>
       </c>
       <c r="B171" s="4"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="B172" s="4"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B173" s="4"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="B174" s="4"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B175" s="4"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="B176" s="4"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B177" s="4"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B178" s="4"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="B179" s="4"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>313</v>
+        <v>61</v>
       </c>
       <c r="B180" s="4"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="B181" s="4"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>253</v>
+        <v>9</v>
       </c>
       <c r="B182" s="4"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="B183" s="4"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>335</v>
+        <v>90</v>
       </c>
       <c r="B184" s="4"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>318</v>
+        <v>69</v>
       </c>
       <c r="B185" s="4"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="B186" s="4"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="B187" s="4"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>328</v>
+        <v>208</v>
       </c>
       <c r="B188" s="4"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="B189" s="4"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="B190" s="4"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>234</v>
+        <v>132</v>
       </c>
       <c r="B191" s="4"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="B192" s="4"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="B193" s="4"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="B194" s="4"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="B195" s="4"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="B196" s="4"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>298</v>
+        <v>54</v>
       </c>
       <c r="B197" s="4"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="B198" s="4"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="B199" s="4"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="B200" s="4"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="B201" s="4"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="B202" s="4"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="B203" s="4"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B204" s="4"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="B205" s="4"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="B206" s="4"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B207" s="4"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>338</v>
+        <v>101</v>
       </c>
       <c r="B208" s="4"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="B209" s="4"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="B210" s="4"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="B211" s="4"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>299</v>
+        <v>115</v>
       </c>
       <c r="B212" s="4"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="B213" s="4"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="B214" s="4"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="B215" s="4"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
       <c r="B216" s="4"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="B217" s="4"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="B218" s="4"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="B219" s="4"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="B220" s="4"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B221" s="4"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B222" s="4"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>303</v>
+        <v>161</v>
       </c>
       <c r="B223" s="4"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="B224" s="4"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>210</v>
+        <v>318</v>
       </c>
       <c r="B225" s="4"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="B226" s="4"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>316</v>
+        <v>128</v>
       </c>
       <c r="B227" s="4"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="B228" s="4"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="B229" s="4"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="B230" s="4"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="B231" s="4"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="B232" s="4"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="B233" s="4"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B234" s="4"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="B235" s="4"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="B236" s="4"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="B237" s="4"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="B238" s="4"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="B239" s="4"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="B240" s="4"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="B241" s="4"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="B242" s="4"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="B243" s="4"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B244" s="4"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="B245" s="4"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="B246" s="4"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="B248" s="4"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B249" s="4"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c r="B250" s="4"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B251" s="4"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B252" s="4"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="B253" s="4"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="B254" s="4"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B255" s="4"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B256" s="4"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="B257" s="4"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
       <c r="B258" s="4"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="B259" s="4"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>317</v>
+        <v>196</v>
       </c>
       <c r="B260" s="4"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="B261" s="4"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="B262" s="4"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="B263" s="4"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="B264" s="4"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="B265" s="4"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="B266" s="4"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="B267" s="4"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="B268" s="4"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="B269" s="4"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="B270" s="4"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="B271" s="4"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="B272" s="4"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B273" s="4"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="B274" s="4"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B275" s="4"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B276" s="4"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="B277" s="4"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="B278" s="4"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c r="B279" s="4"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B280" s="4"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B281" s="4"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="B282" s="4"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B283" s="4"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="B284" s="4"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>145</v>
+        <v>334</v>
       </c>
       <c r="B285" s="4"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="B286" s="4"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="B287" s="4"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B288" s="4"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="B289" s="4"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B290" s="4"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="B291" s="4"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="B292" s="4"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="B293" s="4"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B294" s="4"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="B295" s="4"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="B296" s="4"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="B297" s="4"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="B298" s="4"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="B299" s="4"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="B300" s="4"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="B301" s="4"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="B302" s="4"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B303" s="4"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B304" s="4"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="B305" s="4"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="B306" s="4"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="B307" s="4"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="B308" s="4"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="B309" s="4"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="B310" s="4"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B311" s="4"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="B312" s="4"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="B313" s="4"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="B314" s="4"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B315" s="4"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>294</v>
+        <v>170</v>
       </c>
       <c r="B316" s="4"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="B317" s="4"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="B318" s="4"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="B319" s="4"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="B320" s="4"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>141</v>
+        <v>302</v>
       </c>
       <c r="B321" s="4"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="B322" s="4"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="B323" s="4"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="B324" s="4"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>315</v>
+        <v>145</v>
       </c>
       <c r="B325" s="4"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="B326" s="4"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>301</v>
+        <v>120</v>
       </c>
       <c r="B327" s="4"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="B328" s="4"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="B329" s="4"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="B330" s="4"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="B331" s="4"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="B332" s="4"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="B333" s="4"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="B334" s="4"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="B335" s="4"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="B336" s="4"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="B337" s="4"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="B338" s="4"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
-        <v>64</v>
+        <v>266</v>
       </c>
       <c r="B339" s="4"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="B340" s="4"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="B341" s="4"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="B342" s="4"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
-        <v>89</v>
+        <v>275</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>342</v>
+        <v>205</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
-        <v>333</v>
+        <v>186</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="4" t="s">
         <v>26</v>
       </c>
     </row>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEF992C-0D2C-CB44-8455-C1471C192727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124D502-805A-0F4D-B228-2211AC915199}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2280" windowWidth="34740" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="521">
   <si>
     <t>heidelberg-All</t>
   </si>
@@ -1264,13 +1264,340 @@
   </si>
   <si>
     <t>4722360-4722602</t>
+  </si>
+  <si>
+    <t>376790-416055</t>
+  </si>
+  <si>
+    <t>1008480-1038446</t>
+  </si>
+  <si>
+    <t>1102544-1148741</t>
+  </si>
+  <si>
+    <t>2005642-2020791</t>
+  </si>
+  <si>
+    <t>2870274-2902535</t>
+  </si>
+  <si>
+    <t>3368557-3395076</t>
+  </si>
+  <si>
+    <t>4415406-4434285</t>
+  </si>
+  <si>
+    <t>24486-25686</t>
+  </si>
+  <si>
+    <t>24488-25683</t>
+  </si>
+  <si>
+    <t>24489-25683</t>
+  </si>
+  <si>
+    <t>302595-302671</t>
+  </si>
+  <si>
+    <t>312034-312110</t>
+  </si>
+  <si>
+    <t>651096-652299</t>
+  </si>
+  <si>
+    <t>651100-652294</t>
+  </si>
+  <si>
+    <t>786662-786740</t>
+  </si>
+  <si>
+    <t>786754-786829</t>
+  </si>
+  <si>
+    <t>786864-786939</t>
+  </si>
+  <si>
+    <t>787055-787133</t>
+  </si>
+  <si>
+    <t>867017-867094</t>
+  </si>
+  <si>
+    <t>867224-867299</t>
+  </si>
+  <si>
+    <t>867224-867301</t>
+  </si>
+  <si>
+    <t>867303-867380</t>
+  </si>
+  <si>
+    <t>867428-867505</t>
+  </si>
+  <si>
+    <t>867638-867715</t>
+  </si>
+  <si>
+    <t>922318-923513</t>
+  </si>
+  <si>
+    <t>922318-923515</t>
+  </si>
+  <si>
+    <t>922319-923513</t>
+  </si>
+  <si>
+    <t>922319-923515</t>
+  </si>
+  <si>
+    <t>1029568-1030286</t>
+  </si>
+  <si>
+    <t>1029569-1030286</t>
+  </si>
+  <si>
+    <t>1112791-1113994</t>
+  </si>
+  <si>
+    <t>1112796-1113990</t>
+  </si>
+  <si>
+    <t>1112796-1113996</t>
+  </si>
+  <si>
+    <t>1189714-1189800</t>
+  </si>
+  <si>
+    <t>1515636-1516457</t>
+  </si>
+  <si>
+    <t>1515637-1516456</t>
+  </si>
+  <si>
+    <t>1524285-1525104</t>
+  </si>
+  <si>
+    <t>1530682-1531503</t>
+  </si>
+  <si>
+    <t>1530683-1531502</t>
+  </si>
+  <si>
+    <t>1812204-1813402</t>
+  </si>
+  <si>
+    <t>1812205-1813405</t>
+  </si>
+  <si>
+    <t>1812207-1813402</t>
+  </si>
+  <si>
+    <t>1812208-1813408</t>
+  </si>
+  <si>
+    <t>1812208-1813406</t>
+  </si>
+  <si>
+    <t>1812208-1813402</t>
+  </si>
+  <si>
+    <t>2010691-2011894</t>
+  </si>
+  <si>
+    <t>2010692-2011890</t>
+  </si>
+  <si>
+    <t>2010695-2011892</t>
+  </si>
+  <si>
+    <t>2010696-2011890</t>
+  </si>
+  <si>
+    <t>2010696-2011894</t>
+  </si>
+  <si>
+    <t>2083934-2084010</t>
+  </si>
+  <si>
+    <t>2335296-2335384</t>
+  </si>
+  <si>
+    <t>2573061-2573779</t>
+  </si>
+  <si>
+    <t>2573061-2573778</t>
+  </si>
+  <si>
+    <t>2586740-2586817</t>
+  </si>
+  <si>
+    <t>2586858-2586935</t>
+  </si>
+  <si>
+    <t>2589640-2589715</t>
+  </si>
+  <si>
+    <t>2589761-2589838</t>
+  </si>
+  <si>
+    <t>2589878-2589953</t>
+  </si>
+  <si>
+    <t>2589958-2590035</t>
+  </si>
+  <si>
+    <t>2600898-2600986</t>
+  </si>
+  <si>
+    <t>2600900-2600986</t>
+  </si>
+  <si>
+    <t>2645711-2645782</t>
+  </si>
+  <si>
+    <t>2804634-2804767</t>
+  </si>
+  <si>
+    <t>2944437-2944515</t>
+  </si>
+  <si>
+    <t>2944707-2944785</t>
+  </si>
+  <si>
+    <t>2944984-2945062</t>
+  </si>
+  <si>
+    <t>3123698-3123780</t>
+  </si>
+  <si>
+    <t>3123703-3123779</t>
+  </si>
+  <si>
+    <t>3123804-3123886</t>
+  </si>
+  <si>
+    <t>3123809-3123885</t>
+  </si>
+  <si>
+    <t>3229751-3230954</t>
+  </si>
+  <si>
+    <t>3229751-3230949</t>
+  </si>
+  <si>
+    <t>3229755-3230949</t>
+  </si>
+  <si>
+    <t>3229755-3230953</t>
+  </si>
+  <si>
+    <t>3473817-3473893</t>
+  </si>
+  <si>
+    <t>3581286-3581419</t>
+  </si>
+  <si>
+    <t>3581286-3581416</t>
+  </si>
+  <si>
+    <t>3972236-3973432</t>
+  </si>
+  <si>
+    <t>3972238-3973432</t>
+  </si>
+  <si>
+    <t>3974871-3974957</t>
+  </si>
+  <si>
+    <t>4114991-4115124</t>
+  </si>
+  <si>
+    <t>4114994-4115124</t>
+  </si>
+  <si>
+    <t>4115172-4115248</t>
+  </si>
+  <si>
+    <t>4151042-4151128</t>
+  </si>
+  <si>
+    <t>4209584-4209714</t>
+  </si>
+  <si>
+    <t>4395175-4395305</t>
+  </si>
+  <si>
+    <t>4587853-4589056</t>
+  </si>
+  <si>
+    <t>4587858-4589052</t>
+  </si>
+  <si>
+    <t>4587858-4589056</t>
+  </si>
+  <si>
+    <t>4608584-4609782</t>
+  </si>
+  <si>
+    <t>4608586-4609782</t>
+  </si>
+  <si>
+    <t>4608588-4609782</t>
+  </si>
+  <si>
+    <t>4650356-4650432</t>
+  </si>
+  <si>
+    <t>4650356-4650433</t>
+  </si>
+  <si>
+    <t>4650588-4650664</t>
+  </si>
+  <si>
+    <t>4650820-4650896</t>
+  </si>
+  <si>
+    <t>4650820-4650897</t>
+  </si>
+  <si>
+    <t>4744383-4745100</t>
+  </si>
+  <si>
+    <t>4785100-4785171</t>
+  </si>
+  <si>
+    <t>4841974-4842062</t>
+  </si>
+  <si>
+    <t>4841975-4842061</t>
+  </si>
+  <si>
+    <t>4842206-4842294</t>
+  </si>
+  <si>
+    <t>4842207-4842293</t>
+  </si>
+  <si>
+    <t>867696-868064</t>
+  </si>
+  <si>
+    <t>1044123-1044236</t>
+  </si>
+  <si>
+    <t>3167188-3167282</t>
+  </si>
+  <si>
+    <t>3643944-3644117</t>
+  </si>
+  <si>
+    <t>3694239-3694332</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1436,6 +1763,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2016,7 +2349,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2027,6 +2360,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="279">
     <cellStyle name="20% - Accent1" xfId="148" builtinId="30" customBuiltin="1"/>
@@ -2644,10 +2979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F394"/>
+  <dimension ref="A1:F536"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="D529" sqref="D529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5018,6 +5353,716 @@
         <v>26</v>
       </c>
     </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/Filtered_Regions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\bi\salmonella\vsnp\heidelberg-SL476\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462346FB-3F94-0345-B94D-9351BBE669CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="10060" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23565" yWindow="10065" windowWidth="27645" windowHeight="16935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="530">
   <si>
     <t>heidelberg-All</t>
   </si>
@@ -1591,13 +1590,37 @@
   </si>
   <si>
     <t>1523686-1524309</t>
+  </si>
+  <si>
+    <t>1521321-1521797</t>
+  </si>
+  <si>
+    <t>1523684-1524308</t>
+  </si>
+  <si>
+    <t>4585484-4586602</t>
+  </si>
+  <si>
+    <t>1544720-1551997</t>
+  </si>
+  <si>
+    <t>3379795-3401378</t>
+  </si>
+  <si>
+    <t>3375157-3381574</t>
+  </si>
+  <si>
+    <t>3387611-3392321</t>
+  </si>
+  <si>
+    <t>3400278-3401244</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1653,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1672,6 +1695,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1985,19 +2009,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E545"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
+      <selection activeCell="A549" sqref="A549"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2031,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2065,7 +2091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -2082,7 +2108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -2099,7 +2125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2116,7 +2142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -2133,7 +2159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2150,7 +2176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -2167,7 +2193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -2184,7 +2210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -2201,7 +2227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2218,7 +2244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -2235,7 +2261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -2252,7 +2278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -2269,7 +2295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -2286,7 +2312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -2303,7 +2329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -2320,7 +2346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -2337,7 +2363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
@@ -2354,7 +2380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -2371,7 +2397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
@@ -2388,7 +2414,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
@@ -2405,7 +2431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -2422,7 +2448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -2439,7 +2465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
@@ -2456,7 +2482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
@@ -2473,7 +2499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -2490,7 +2516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -2507,7 +2533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
@@ -2524,7 +2550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>48</v>
       </c>
@@ -2541,7 +2567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>49</v>
       </c>
@@ -2558,7 +2584,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
@@ -2575,7 +2601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>51</v>
       </c>
@@ -2592,7 +2618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>52</v>
       </c>
@@ -2609,7 +2635,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>53</v>
       </c>
@@ -2626,7 +2652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>54</v>
       </c>
@@ -2643,7 +2669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
@@ -2660,7 +2686,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>56</v>
       </c>
@@ -2677,7 +2703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
@@ -2694,7 +2720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
         <v>58</v>
       </c>
@@ -2711,7 +2737,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
         <v>59</v>
       </c>
@@ -2728,7 +2754,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
         <v>60</v>
       </c>
@@ -2745,7 +2771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>61</v>
       </c>
@@ -2762,7 +2788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
@@ -2779,7 +2805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
@@ -2796,7 +2822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>64</v>
       </c>
@@ -2813,7 +2839,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>65</v>
       </c>
@@ -2830,7 +2856,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
         <v>66</v>
       </c>
@@ -2847,7 +2873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>67</v>
       </c>
@@ -2864,7 +2890,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
         <v>68</v>
       </c>
@@ -2881,7 +2907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
         <v>69</v>
       </c>
@@ -2898,7 +2924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
         <v>70</v>
       </c>
@@ -2915,7 +2941,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="5" t="s">
         <v>71</v>
       </c>
@@ -2932,7 +2958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
         <v>72</v>
       </c>
@@ -2949,7 +2975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
         <v>73</v>
       </c>
@@ -2966,7 +2992,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
         <v>74</v>
       </c>
@@ -2983,7 +3009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
         <v>75</v>
       </c>
@@ -3000,7 +3026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
         <v>76</v>
       </c>
@@ -3017,7 +3043,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
         <v>77</v>
       </c>
@@ -3034,7 +3060,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="5" t="s">
         <v>78</v>
       </c>
@@ -3051,7 +3077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="5" t="s">
         <v>79</v>
       </c>
@@ -3068,7 +3094,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="5" t="s">
         <v>80</v>
       </c>
@@ -3085,7 +3111,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="5" t="s">
         <v>81</v>
       </c>
@@ -3102,7 +3128,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="5" t="s">
         <v>82</v>
       </c>
@@ -3119,7 +3145,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
         <v>83</v>
       </c>
@@ -3136,7 +3162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="5" t="s">
         <v>84</v>
       </c>
@@ -3153,7 +3179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="5" t="s">
         <v>85</v>
       </c>
@@ -3170,7 +3196,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="5" t="s">
         <v>86</v>
       </c>
@@ -3187,7 +3213,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="5" t="s">
         <v>87</v>
       </c>
@@ -3204,7 +3230,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="5" t="s">
         <v>88</v>
       </c>
@@ -3221,7 +3247,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="5" t="s">
         <v>89</v>
       </c>
@@ -3238,7 +3264,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
         <v>90</v>
       </c>
@@ -3255,7 +3281,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="5" t="s">
         <v>91</v>
       </c>
@@ -3272,7 +3298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="5" t="s">
         <v>92</v>
       </c>
@@ -3289,7 +3315,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="5" t="s">
         <v>93</v>
       </c>
@@ -3306,7 +3332,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="5" t="s">
         <v>94</v>
       </c>
@@ -3323,7 +3349,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="5" t="s">
         <v>95</v>
       </c>
@@ -3340,7 +3366,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="5" t="s">
         <v>96</v>
       </c>
@@ -3357,7 +3383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
         <v>97</v>
       </c>
@@ -3374,7 +3400,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="5" t="s">
         <v>98</v>
       </c>
@@ -3391,7 +3417,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="5" t="s">
         <v>99</v>
       </c>
@@ -3408,7 +3434,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="5" t="s">
         <v>100</v>
       </c>
@@ -3425,7 +3451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="5" t="s">
         <v>101</v>
       </c>
@@ -3442,7 +3468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="5" t="s">
         <v>102</v>
       </c>
@@ -3459,7 +3485,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="5" t="s">
         <v>103</v>
       </c>
@@ -3476,7 +3502,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="5" t="s">
         <v>104</v>
       </c>
@@ -3493,7 +3519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="5" t="s">
         <v>105</v>
       </c>
@@ -3510,7 +3536,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="5" t="s">
         <v>106</v>
       </c>
@@ -3527,7 +3553,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="5" t="s">
         <v>107</v>
       </c>
@@ -3544,7 +3570,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" s="5" t="s">
         <v>108</v>
       </c>
@@ -3561,7 +3587,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="5" t="s">
         <v>109</v>
       </c>
@@ -3578,7 +3604,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="5" t="s">
         <v>110</v>
       </c>
@@ -3595,7 +3621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="5" t="s">
         <v>111</v>
       </c>
@@ -3612,7 +3638,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="5" t="s">
         <v>112</v>
       </c>
@@ -3629,7 +3655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="5" t="s">
         <v>113</v>
       </c>
@@ -3646,7 +3672,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="5" t="s">
         <v>114</v>
       </c>
@@ -3663,7 +3689,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="5" t="s">
         <v>115</v>
       </c>
@@ -3680,7 +3706,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="5" t="s">
         <v>116</v>
       </c>
@@ -3697,7 +3723,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="5" t="s">
         <v>117</v>
       </c>
@@ -3714,7 +3740,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="5" t="s">
         <v>118</v>
       </c>
@@ -3731,7 +3757,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="5" t="s">
         <v>119</v>
       </c>
@@ -3748,7 +3774,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="5" t="s">
         <v>120</v>
       </c>
@@ -3765,7 +3791,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="5" t="s">
         <v>121</v>
       </c>
@@ -3782,7 +3808,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="5" t="s">
         <v>122</v>
       </c>
@@ -3799,7 +3825,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" s="5" t="s">
         <v>123</v>
       </c>
@@ -3816,7 +3842,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" s="5" t="s">
         <v>124</v>
       </c>
@@ -3833,7 +3859,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="5" t="s">
         <v>125</v>
       </c>
@@ -3850,7 +3876,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="5" t="s">
         <v>126</v>
       </c>
@@ -3867,7 +3893,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
         <v>127</v>
       </c>
@@ -3884,7 +3910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="5" t="s">
         <v>128</v>
       </c>
@@ -3901,7 +3927,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="5" t="s">
         <v>129</v>
       </c>
@@ -3918,7 +3944,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" s="5" t="s">
         <v>130</v>
       </c>
@@ -3935,7 +3961,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" s="5" t="s">
         <v>131</v>
       </c>
@@ -3952,7 +3978,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" s="5" t="s">
         <v>132</v>
       </c>
@@ -3969,7 +3995,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="5" t="s">
         <v>133</v>
       </c>
@@ -3986,7 +4012,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
         <v>134</v>
       </c>
@@ -4003,7 +4029,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" s="5" t="s">
         <v>135</v>
       </c>
@@ -4020,7 +4046,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" s="5" t="s">
         <v>136</v>
       </c>
@@ -4037,7 +4063,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" s="5" t="s">
         <v>137</v>
       </c>
@@ -4054,7 +4080,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
         <v>138</v>
       </c>
@@ -4071,7 +4097,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
         <v>139</v>
       </c>
@@ -4088,7 +4114,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" s="5" t="s">
         <v>140</v>
       </c>
@@ -4105,7 +4131,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" s="5" t="s">
         <v>141</v>
       </c>
@@ -4122,7 +4148,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
         <v>142</v>
       </c>
@@ -4139,7 +4165,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" s="5" t="s">
         <v>143</v>
       </c>
@@ -4156,7 +4182,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="5" t="s">
         <v>144</v>
       </c>
@@ -4173,7 +4199,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" s="5" t="s">
         <v>145</v>
       </c>
@@ -4190,7 +4216,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" s="5" t="s">
         <v>146</v>
       </c>
@@ -4207,7 +4233,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" s="5" t="s">
         <v>147</v>
       </c>
@@ -4224,7 +4250,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" s="5" t="s">
         <v>148</v>
       </c>
@@ -4241,7 +4267,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" s="5" t="s">
         <v>149</v>
       </c>
@@ -4258,7 +4284,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
         <v>150</v>
       </c>
@@ -4275,7 +4301,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135" s="5" t="s">
         <v>151</v>
       </c>
@@ -4292,7 +4318,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136" s="5" t="s">
         <v>152</v>
       </c>
@@ -4309,7 +4335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137" s="5" t="s">
         <v>153</v>
       </c>
@@ -4326,7 +4352,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" s="5" t="s">
         <v>154</v>
       </c>
@@ -4343,7 +4369,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139" s="5" t="s">
         <v>155</v>
       </c>
@@ -4360,7 +4386,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
         <v>156</v>
       </c>
@@ -4377,7 +4403,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" s="5" t="s">
         <v>157</v>
       </c>
@@ -4394,7 +4420,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142" s="5" t="s">
         <v>158</v>
       </c>
@@ -4411,7 +4437,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143" s="5" t="s">
         <v>159</v>
       </c>
@@ -4428,7 +4454,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" s="5" t="s">
         <v>160</v>
       </c>
@@ -4445,7 +4471,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" s="5" t="s">
         <v>161</v>
       </c>
@@ -4462,7 +4488,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" s="5" t="s">
         <v>162</v>
       </c>
@@ -4479,7 +4505,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" s="5" t="s">
         <v>163</v>
       </c>
@@ -4496,7 +4522,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148" s="5" t="s">
         <v>164</v>
       </c>
@@ -4513,7 +4539,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="A149" s="5" t="s">
         <v>165</v>
       </c>
@@ -4530,7 +4556,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150" s="5" t="s">
         <v>166</v>
       </c>
@@ -4547,7 +4573,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" s="5" t="s">
         <v>167</v>
       </c>
@@ -4564,7 +4590,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152" s="5" t="s">
         <v>168</v>
       </c>
@@ -4581,7 +4607,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153" s="5" t="s">
         <v>169</v>
       </c>
@@ -4598,7 +4624,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" s="5" t="s">
         <v>170</v>
       </c>
@@ -4615,7 +4641,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" s="5" t="s">
         <v>171</v>
       </c>
@@ -4632,7 +4658,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" s="5" t="s">
         <v>172</v>
       </c>
@@ -4649,7 +4675,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" s="5" t="s">
         <v>173</v>
       </c>
@@ -4666,7 +4692,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="5" t="s">
         <v>174</v>
       </c>
@@ -4683,7 +4709,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" s="5" t="s">
         <v>175</v>
       </c>
@@ -4700,7 +4726,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
         <v>176</v>
       </c>
@@ -4717,7 +4743,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="5" t="s">
         <v>177</v>
       </c>
@@ -4734,7 +4760,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="5" t="s">
         <v>178</v>
       </c>
@@ -4751,7 +4777,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="5" t="s">
         <v>179</v>
       </c>
@@ -4768,7 +4794,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="5" t="s">
         <v>180</v>
       </c>
@@ -4785,7 +4811,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="5" t="s">
         <v>181</v>
       </c>
@@ -4802,7 +4828,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
         <v>182</v>
       </c>
@@ -4819,7 +4845,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="5" t="s">
         <v>183</v>
       </c>
@@ -4836,7 +4862,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="5" t="s">
         <v>184</v>
       </c>
@@ -4853,7 +4879,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="5" t="s">
         <v>185</v>
       </c>
@@ -4870,7 +4896,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="5" t="s">
         <v>186</v>
       </c>
@@ -4887,7 +4913,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="5" t="s">
         <v>187</v>
       </c>
@@ -4904,7 +4930,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="5" t="s">
         <v>188</v>
       </c>
@@ -4921,7 +4947,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="5" t="s">
         <v>189</v>
       </c>
@@ -4938,7 +4964,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="5" t="s">
         <v>190</v>
       </c>
@@ -4955,7 +4981,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="5" t="s">
         <v>191</v>
       </c>
@@ -4972,7 +4998,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="5" t="s">
         <v>192</v>
       </c>
@@ -4989,7 +5015,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177" s="5" t="s">
         <v>193</v>
       </c>
@@ -5006,7 +5032,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" s="5" t="s">
         <v>194</v>
       </c>
@@ -5023,7 +5049,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
         <v>195</v>
       </c>
@@ -5040,7 +5066,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180" s="5" t="s">
         <v>196</v>
       </c>
@@ -5057,7 +5083,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181" s="5" t="s">
         <v>197</v>
       </c>
@@ -5074,7 +5100,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182" s="5" t="s">
         <v>198</v>
       </c>
@@ -5091,7 +5117,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183" s="5" t="s">
         <v>199</v>
       </c>
@@ -5108,7 +5134,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184" s="5" t="s">
         <v>200</v>
       </c>
@@ -5125,7 +5151,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" s="5" t="s">
         <v>201</v>
       </c>
@@ -5142,7 +5168,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
         <v>202</v>
       </c>
@@ -5159,7 +5185,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187" s="5" t="s">
         <v>203</v>
       </c>
@@ -5176,7 +5202,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188" s="5" t="s">
         <v>204</v>
       </c>
@@ -5193,7 +5219,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189" s="5" t="s">
         <v>205</v>
       </c>
@@ -5210,7 +5236,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190" s="5" t="s">
         <v>206</v>
       </c>
@@ -5227,7 +5253,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" s="5" t="s">
         <v>207</v>
       </c>
@@ -5244,7 +5270,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192" s="5" t="s">
         <v>208</v>
       </c>
@@ -5261,7 +5287,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193" s="5" t="s">
         <v>209</v>
       </c>
@@ -5278,7 +5304,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194" s="5" t="s">
         <v>210</v>
       </c>
@@ -5295,7 +5321,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195" s="5" t="s">
         <v>211</v>
       </c>
@@ -5312,7 +5338,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196" s="5" t="s">
         <v>212</v>
       </c>
@@ -5329,7 +5355,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197" s="5" t="s">
         <v>213</v>
       </c>
@@ -5346,7 +5372,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" s="5" t="s">
         <v>214</v>
       </c>
@@ -5363,7 +5389,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199" s="5" t="s">
         <v>215</v>
       </c>
@@ -5380,7 +5406,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200" s="5" t="s">
         <v>216</v>
       </c>
@@ -5397,7 +5423,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201" s="5" t="s">
         <v>217</v>
       </c>
@@ -5414,7 +5440,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" s="5" t="s">
         <v>218</v>
       </c>
@@ -5431,7 +5457,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203" s="5" t="s">
         <v>219</v>
       </c>
@@ -5448,7 +5474,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204" s="5" t="s">
         <v>220</v>
       </c>
@@ -5465,7 +5491,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205" s="5" t="s">
         <v>221</v>
       </c>
@@ -5482,7 +5508,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" s="5" t="s">
         <v>222</v>
       </c>
@@ -5499,7 +5525,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207" s="5" t="s">
         <v>223</v>
       </c>
@@ -5516,7 +5542,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208" s="5" t="s">
         <v>224</v>
       </c>
@@ -5533,7 +5559,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209" s="5" t="s">
         <v>225</v>
       </c>
@@ -5550,7 +5576,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210" s="5" t="s">
         <v>226</v>
       </c>
@@ -5567,7 +5593,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211" s="5" t="s">
         <v>227</v>
       </c>
@@ -5584,7 +5610,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212" s="5" t="s">
         <v>228</v>
       </c>
@@ -5601,7 +5627,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213" s="5" t="s">
         <v>229</v>
       </c>
@@ -5618,7 +5644,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214" s="5" t="s">
         <v>230</v>
       </c>
@@ -5635,7 +5661,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215" s="5" t="s">
         <v>231</v>
       </c>
@@ -5652,7 +5678,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216" s="5" t="s">
         <v>232</v>
       </c>
@@ -5669,7 +5695,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" s="5" t="s">
         <v>233</v>
       </c>
@@ -5686,7 +5712,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218" s="5" t="s">
         <v>234</v>
       </c>
@@ -5703,7 +5729,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" s="5" t="s">
         <v>235</v>
       </c>
@@ -5720,7 +5746,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" s="5" t="s">
         <v>236</v>
       </c>
@@ -5737,7 +5763,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" s="5" t="s">
         <v>237</v>
       </c>
@@ -5754,7 +5780,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222" s="5" t="s">
         <v>238</v>
       </c>
@@ -5771,7 +5797,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" s="5" t="s">
         <v>239</v>
       </c>
@@ -5788,7 +5814,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224" s="5" t="s">
         <v>240</v>
       </c>
@@ -5805,7 +5831,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225" s="5" t="s">
         <v>241</v>
       </c>
@@ -5822,7 +5848,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" s="5" t="s">
         <v>242</v>
       </c>
@@ -5839,7 +5865,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227" s="5" t="s">
         <v>243</v>
       </c>
@@ -5856,7 +5882,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228" s="5" t="s">
         <v>244</v>
       </c>
@@ -5873,7 +5899,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" s="5" t="s">
         <v>245</v>
       </c>
@@ -5890,7 +5916,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230" s="5" t="s">
         <v>246</v>
       </c>
@@ -5907,7 +5933,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" s="5" t="s">
         <v>247</v>
       </c>
@@ -5924,7 +5950,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232" s="5" t="s">
         <v>248</v>
       </c>
@@ -5941,7 +5967,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233" s="5" t="s">
         <v>249</v>
       </c>
@@ -5958,7 +5984,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" s="5" t="s">
         <v>250</v>
       </c>
@@ -5975,7 +6001,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" s="5" t="s">
         <v>251</v>
       </c>
@@ -5992,7 +6018,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" s="5" t="s">
         <v>252</v>
       </c>
@@ -6009,7 +6035,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237" s="5" t="s">
         <v>253</v>
       </c>
@@ -6026,7 +6052,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238" s="5" t="s">
         <v>254</v>
       </c>
@@ -6043,7 +6069,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239" s="5" t="s">
         <v>255</v>
       </c>
@@ -6060,7 +6086,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240" s="5" t="s">
         <v>256</v>
       </c>
@@ -6077,7 +6103,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241" s="5" t="s">
         <v>257</v>
       </c>
@@ -6094,7 +6120,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242" s="5" t="s">
         <v>258</v>
       </c>
@@ -6111,7 +6137,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243" s="5" t="s">
         <v>259</v>
       </c>
@@ -6128,7 +6154,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" s="5" t="s">
         <v>260</v>
       </c>
@@ -6145,7 +6171,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245" s="5" t="s">
         <v>261</v>
       </c>
@@ -6162,7 +6188,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" s="5" t="s">
         <v>262</v>
       </c>
@@ -6179,7 +6205,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247" s="5" t="s">
         <v>263</v>
       </c>
@@ -6196,7 +6222,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248" s="5" t="s">
         <v>264</v>
       </c>
@@ -6213,7 +6239,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249" s="5" t="s">
         <v>265</v>
       </c>
@@ -6230,7 +6256,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250" s="5" t="s">
         <v>266</v>
       </c>
@@ -6247,7 +6273,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251" s="5" t="s">
         <v>267</v>
       </c>
@@ -6264,7 +6290,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252" s="5" t="s">
         <v>268</v>
       </c>
@@ -6281,7 +6307,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253" s="5" t="s">
         <v>269</v>
       </c>
@@ -6298,7 +6324,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254" s="5" t="s">
         <v>270</v>
       </c>
@@ -6315,7 +6341,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255" s="5" t="s">
         <v>271</v>
       </c>
@@ -6332,7 +6358,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256" s="5" t="s">
         <v>272</v>
       </c>
@@ -6349,7 +6375,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257" s="5" t="s">
         <v>273</v>
       </c>
@@ -6366,7 +6392,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258" s="5" t="s">
         <v>274</v>
       </c>
@@ -6383,7 +6409,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259" s="5" t="s">
         <v>275</v>
       </c>
@@ -6400,7 +6426,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260" s="5" t="s">
         <v>276</v>
       </c>
@@ -6417,7 +6443,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261" s="5" t="s">
         <v>277</v>
       </c>
@@ -6434,7 +6460,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262" s="5" t="s">
         <v>278</v>
       </c>
@@ -6451,7 +6477,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263" s="5" t="s">
         <v>279</v>
       </c>
@@ -6468,7 +6494,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264" s="5" t="s">
         <v>280</v>
       </c>
@@ -6485,7 +6511,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265" s="5" t="s">
         <v>281</v>
       </c>
@@ -6502,7 +6528,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266" s="5" t="s">
         <v>282</v>
       </c>
@@ -6519,7 +6545,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267" s="5" t="s">
         <v>283</v>
       </c>
@@ -6536,7 +6562,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268" s="5" t="s">
         <v>284</v>
       </c>
@@ -6553,7 +6579,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269" s="5" t="s">
         <v>285</v>
       </c>
@@ -6570,7 +6596,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270" s="5" t="s">
         <v>286</v>
       </c>
@@ -6587,7 +6613,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271" s="5" t="s">
         <v>287</v>
       </c>
@@ -6604,7 +6630,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272" s="5" t="s">
         <v>288</v>
       </c>
@@ -6621,7 +6647,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273" s="5" t="s">
         <v>289</v>
       </c>
@@ -6638,7 +6664,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274" s="5" t="s">
         <v>290</v>
       </c>
@@ -6655,7 +6681,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275" s="5" t="s">
         <v>291</v>
       </c>
@@ -6672,7 +6698,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276" s="5" t="s">
         <v>292</v>
       </c>
@@ -6689,7 +6715,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277" s="5" t="s">
         <v>293</v>
       </c>
@@ -6706,7 +6732,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278" s="5" t="s">
         <v>294</v>
       </c>
@@ -6723,7 +6749,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279" s="5" t="s">
         <v>295</v>
       </c>
@@ -6740,7 +6766,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280" s="5" t="s">
         <v>296</v>
       </c>
@@ -6757,7 +6783,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281" s="5" t="s">
         <v>297</v>
       </c>
@@ -6774,7 +6800,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282" s="5" t="s">
         <v>298</v>
       </c>
@@ -6791,7 +6817,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283" s="5" t="s">
         <v>299</v>
       </c>
@@ -6808,7 +6834,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284" s="5" t="s">
         <v>300</v>
       </c>
@@ -6825,7 +6851,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285" s="5" t="s">
         <v>301</v>
       </c>
@@ -6842,7 +6868,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286" s="5" t="s">
         <v>302</v>
       </c>
@@ -6859,7 +6885,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287" s="5" t="s">
         <v>303</v>
       </c>
@@ -6876,7 +6902,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288" s="5" t="s">
         <v>304</v>
       </c>
@@ -6893,7 +6919,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289" s="5" t="s">
         <v>305</v>
       </c>
@@ -6910,7 +6936,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290" s="5" t="s">
         <v>306</v>
       </c>
@@ -6927,7 +6953,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291" s="5" t="s">
         <v>307</v>
       </c>
@@ -6944,7 +6970,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292" s="5" t="s">
         <v>308</v>
       </c>
@@ -6961,7 +6987,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293" s="5" t="s">
         <v>309</v>
       </c>
@@ -6978,7 +7004,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294" s="5" t="s">
         <v>310</v>
       </c>
@@ -6995,7 +7021,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295" s="5" t="s">
         <v>311</v>
       </c>
@@ -7012,7 +7038,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296" s="5" t="s">
         <v>312</v>
       </c>
@@ -7029,7 +7055,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297" s="5" t="s">
         <v>313</v>
       </c>
@@ -7046,7 +7072,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298" s="5" t="s">
         <v>314</v>
       </c>
@@ -7063,7 +7089,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299" s="5" t="s">
         <v>315</v>
       </c>
@@ -7080,7 +7106,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300" s="5" t="s">
         <v>316</v>
       </c>
@@ -7097,7 +7123,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301" s="5" t="s">
         <v>317</v>
       </c>
@@ -7114,7 +7140,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302" s="5" t="s">
         <v>318</v>
       </c>
@@ -7131,7 +7157,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303" s="5" t="s">
         <v>319</v>
       </c>
@@ -7148,7 +7174,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304" s="5" t="s">
         <v>320</v>
       </c>
@@ -7165,7 +7191,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305" s="5" t="s">
         <v>321</v>
       </c>
@@ -7182,7 +7208,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306" s="5" t="s">
         <v>322</v>
       </c>
@@ -7199,7 +7225,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307" s="5" t="s">
         <v>323</v>
       </c>
@@ -7216,7 +7242,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308" s="5" t="s">
         <v>324</v>
       </c>
@@ -7233,7 +7259,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309" s="5" t="s">
         <v>325</v>
       </c>
@@ -7250,7 +7276,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310" s="5" t="s">
         <v>326</v>
       </c>
@@ -7267,7 +7293,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311" s="5" t="s">
         <v>327</v>
       </c>
@@ -7284,7 +7310,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312" s="5" t="s">
         <v>328</v>
       </c>
@@ -7301,7 +7327,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313" s="5" t="s">
         <v>329</v>
       </c>
@@ -7318,7 +7344,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314" s="5" t="s">
         <v>330</v>
       </c>
@@ -7335,7 +7361,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315" s="5" t="s">
         <v>331</v>
       </c>
@@ -7352,7 +7378,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316" s="5" t="s">
         <v>332</v>
       </c>
@@ -7369,7 +7395,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317" s="5" t="s">
         <v>333</v>
       </c>
@@ -7386,7 +7412,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318" s="5" t="s">
         <v>334</v>
       </c>
@@ -7403,7 +7429,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319" s="5" t="s">
         <v>335</v>
       </c>
@@ -7420,7 +7446,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320" s="5" t="s">
         <v>336</v>
       </c>
@@ -7437,7 +7463,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321" s="5" t="s">
         <v>337</v>
       </c>
@@ -7454,7 +7480,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322" s="5" t="s">
         <v>338</v>
       </c>
@@ -7471,7 +7497,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323" s="5" t="s">
         <v>339</v>
       </c>
@@ -7488,7 +7514,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324" s="5" t="s">
         <v>340</v>
       </c>
@@ -7505,7 +7531,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325" s="5" t="s">
         <v>341</v>
       </c>
@@ -7522,7 +7548,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326" s="5" t="s">
         <v>342</v>
       </c>
@@ -7539,7 +7565,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327" s="5" t="s">
         <v>343</v>
       </c>
@@ -7556,7 +7582,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328" s="5" t="s">
         <v>344</v>
       </c>
@@ -7573,7 +7599,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329" s="5" t="s">
         <v>345</v>
       </c>
@@ -7590,7 +7616,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330" s="5" t="s">
         <v>346</v>
       </c>
@@ -7607,7 +7633,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331" s="5" t="s">
         <v>347</v>
       </c>
@@ -7624,7 +7650,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332" s="5" t="s">
         <v>348</v>
       </c>
@@ -7641,7 +7667,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333" s="5" t="s">
         <v>349</v>
       </c>
@@ -7658,7 +7684,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334" s="5" t="s">
         <v>350</v>
       </c>
@@ -7675,7 +7701,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335" s="5" t="s">
         <v>351</v>
       </c>
@@ -7692,7 +7718,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336" s="5" t="s">
         <v>352</v>
       </c>
@@ -7709,7 +7735,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337" s="5" t="s">
         <v>353</v>
       </c>
@@ -7726,7 +7752,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338" s="5" t="s">
         <v>354</v>
       </c>
@@ -7743,7 +7769,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339" s="5" t="s">
         <v>355</v>
       </c>
@@ -7760,7 +7786,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340" s="5" t="s">
         <v>356</v>
       </c>
@@ -7777,7 +7803,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341" s="5" t="s">
         <v>357</v>
       </c>
@@ -7794,7 +7820,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342" s="5" t="s">
         <v>358</v>
       </c>
@@ -7811,7 +7837,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343" s="5" t="s">
         <v>359</v>
       </c>
@@ -7828,7 +7854,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344" s="5" t="s">
         <v>360</v>
       </c>
@@ -7845,7 +7871,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345" s="5" t="s">
         <v>361</v>
       </c>
@@ -7862,7 +7888,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346" s="5" t="s">
         <v>362</v>
       </c>
@@ -7879,7 +7905,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347" s="5" t="s">
         <v>363</v>
       </c>
@@ -7896,7 +7922,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348" s="5" t="s">
         <v>364</v>
       </c>
@@ -7913,7 +7939,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349" s="5" t="s">
         <v>365</v>
       </c>
@@ -7930,7 +7956,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350" s="5" t="s">
         <v>366</v>
       </c>
@@ -7947,7 +7973,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351" s="5" t="s">
         <v>367</v>
       </c>
@@ -7964,7 +7990,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352" s="5" t="s">
         <v>368</v>
       </c>
@@ -7981,7 +8007,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353" s="5" t="s">
         <v>369</v>
       </c>
@@ -7998,7 +8024,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354" s="5" t="s">
         <v>370</v>
       </c>
@@ -8015,7 +8041,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355" s="5" t="s">
         <v>371</v>
       </c>
@@ -8032,7 +8058,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356" s="5" t="s">
         <v>372</v>
       </c>
@@ -8049,7 +8075,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357" s="5" t="s">
         <v>373</v>
       </c>
@@ -8066,7 +8092,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358" s="5" t="s">
         <v>374</v>
       </c>
@@ -8083,7 +8109,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359" s="5" t="s">
         <v>375</v>
       </c>
@@ -8100,7 +8126,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360" s="5" t="s">
         <v>376</v>
       </c>
@@ -8117,7 +8143,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361" s="5" t="s">
         <v>377</v>
       </c>
@@ -8134,7 +8160,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362" s="5" t="s">
         <v>378</v>
       </c>
@@ -8151,7 +8177,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363" s="5" t="s">
         <v>379</v>
       </c>
@@ -8168,7 +8194,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364" s="5" t="s">
         <v>380</v>
       </c>
@@ -8185,7 +8211,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365" s="5" t="s">
         <v>381</v>
       </c>
@@ -8202,7 +8228,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366" s="5" t="s">
         <v>382</v>
       </c>
@@ -8219,7 +8245,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5">
       <c r="A367" s="5" t="s">
         <v>383</v>
       </c>
@@ -8236,7 +8262,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5">
       <c r="A368" s="5" t="s">
         <v>384</v>
       </c>
@@ -8253,7 +8279,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5">
       <c r="A369" s="5" t="s">
         <v>385</v>
       </c>
@@ -8270,7 +8296,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5">
       <c r="A370" s="5" t="s">
         <v>386</v>
       </c>
@@ -8287,7 +8313,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5">
       <c r="A371" s="5" t="s">
         <v>387</v>
       </c>
@@ -8304,7 +8330,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5">
       <c r="A372" s="5" t="s">
         <v>388</v>
       </c>
@@ -8321,7 +8347,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5">
       <c r="A373" s="5" t="s">
         <v>389</v>
       </c>
@@ -8338,7 +8364,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5">
       <c r="A374" s="5" t="s">
         <v>390</v>
       </c>
@@ -8355,7 +8381,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5">
       <c r="A375" s="5" t="s">
         <v>391</v>
       </c>
@@ -8372,7 +8398,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5">
       <c r="A376" s="5" t="s">
         <v>392</v>
       </c>
@@ -8389,7 +8415,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5">
       <c r="A377" s="5" t="s">
         <v>393</v>
       </c>
@@ -8406,7 +8432,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5">
       <c r="A378" s="5" t="s">
         <v>394</v>
       </c>
@@ -8423,7 +8449,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5">
       <c r="A379" s="5" t="s">
         <v>395</v>
       </c>
@@ -8440,7 +8466,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5">
       <c r="A380" s="5" t="s">
         <v>396</v>
       </c>
@@ -8457,7 +8483,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5">
       <c r="A381" s="5" t="s">
         <v>397</v>
       </c>
@@ -8474,7 +8500,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5">
       <c r="A382" s="5" t="s">
         <v>398</v>
       </c>
@@ -8491,7 +8517,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5">
       <c r="A383" s="5" t="s">
         <v>399</v>
       </c>
@@ -8508,7 +8534,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5">
       <c r="A384" s="5" t="s">
         <v>400</v>
       </c>
@@ -8525,7 +8551,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5">
       <c r="A385" s="5" t="s">
         <v>401</v>
       </c>
@@ -8542,7 +8568,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5">
       <c r="A386" s="5" t="s">
         <v>402</v>
       </c>
@@ -8559,7 +8585,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5">
       <c r="A387" s="5" t="s">
         <v>403</v>
       </c>
@@ -8576,7 +8602,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5">
       <c r="A388" s="5" t="s">
         <v>404</v>
       </c>
@@ -8593,7 +8619,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5">
       <c r="A389" s="5" t="s">
         <v>405</v>
       </c>
@@ -8610,7 +8636,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5">
       <c r="A390" s="5" t="s">
         <v>406</v>
       </c>
@@ -8627,7 +8653,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5">
       <c r="A391" s="5" t="s">
         <v>407</v>
       </c>
@@ -8644,7 +8670,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5">
       <c r="A392" s="5" t="s">
         <v>408</v>
       </c>
@@ -8661,7 +8687,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5">
       <c r="A393" s="5" t="s">
         <v>409</v>
       </c>
@@ -8678,7 +8704,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5">
       <c r="A394" s="5" t="s">
         <v>410</v>
       </c>
@@ -8695,7 +8721,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5">
       <c r="A395" s="6" t="s">
         <v>411</v>
       </c>
@@ -8712,7 +8738,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5">
       <c r="A396" s="6" t="s">
         <v>412</v>
       </c>
@@ -8729,7 +8755,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5">
       <c r="A397" s="6" t="s">
         <v>413</v>
       </c>
@@ -8746,7 +8772,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5">
       <c r="A398" s="6" t="s">
         <v>414</v>
       </c>
@@ -8763,7 +8789,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5">
       <c r="A399" s="6" t="s">
         <v>415</v>
       </c>
@@ -8780,7 +8806,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5">
       <c r="A400" s="6" t="s">
         <v>416</v>
       </c>
@@ -8797,7 +8823,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5">
       <c r="A401" s="6" t="s">
         <v>417</v>
       </c>
@@ -8814,7 +8840,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5">
       <c r="A402" s="7" t="s">
         <v>418</v>
       </c>
@@ -8831,7 +8857,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5">
       <c r="A403" s="7" t="s">
         <v>419</v>
       </c>
@@ -8848,7 +8874,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5">
       <c r="A404" s="7" t="s">
         <v>420</v>
       </c>
@@ -8865,7 +8891,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5">
       <c r="A405" s="7" t="s">
         <v>421</v>
       </c>
@@ -8882,7 +8908,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5">
       <c r="A406" s="7" t="s">
         <v>422</v>
       </c>
@@ -8899,7 +8925,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5">
       <c r="A407" s="7" t="s">
         <v>422</v>
       </c>
@@ -8916,7 +8942,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5">
       <c r="A408" s="7" t="s">
         <v>423</v>
       </c>
@@ -8933,7 +8959,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5">
       <c r="A409" s="7" t="s">
         <v>424</v>
       </c>
@@ -8950,7 +8976,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5">
       <c r="A410" s="7" t="s">
         <v>424</v>
       </c>
@@ -8967,7 +8993,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5">
       <c r="A411" s="7" t="s">
         <v>425</v>
       </c>
@@ -8984,7 +9010,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5">
       <c r="A412" s="7" t="s">
         <v>426</v>
       </c>
@@ -9001,7 +9027,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5">
       <c r="A413" s="7" t="s">
         <v>427</v>
       </c>
@@ -9018,7 +9044,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5">
       <c r="A414" s="7" t="s">
         <v>428</v>
       </c>
@@ -9035,7 +9061,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5">
       <c r="A415" s="7" t="s">
         <v>429</v>
       </c>
@@ -9052,7 +9078,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5">
       <c r="A416" s="7" t="s">
         <v>429</v>
       </c>
@@ -9069,7 +9095,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5">
       <c r="A417" s="7" t="s">
         <v>429</v>
       </c>
@@ -9086,7 +9112,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5">
       <c r="A418" s="7" t="s">
         <v>430</v>
       </c>
@@ -9103,7 +9129,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5">
       <c r="A419" s="7" t="s">
         <v>431</v>
       </c>
@@ -9120,7 +9146,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5">
       <c r="A420" s="7" t="s">
         <v>432</v>
       </c>
@@ -9137,7 +9163,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5">
       <c r="A421" s="7" t="s">
         <v>433</v>
       </c>
@@ -9154,7 +9180,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5">
       <c r="A422" s="7" t="s">
         <v>434</v>
       </c>
@@ -9171,7 +9197,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5">
       <c r="A423" s="7" t="s">
         <v>435</v>
       </c>
@@ -9188,7 +9214,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5">
       <c r="A424" s="7" t="s">
         <v>435</v>
       </c>
@@ -9205,7 +9231,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5">
       <c r="A425" s="7" t="s">
         <v>436</v>
       </c>
@@ -9222,7 +9248,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5">
       <c r="A426" s="7" t="s">
         <v>437</v>
       </c>
@@ -9239,7 +9265,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5">
       <c r="A427" s="7" t="s">
         <v>437</v>
       </c>
@@ -9256,7 +9282,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5">
       <c r="A428" s="7" t="s">
         <v>438</v>
       </c>
@@ -9273,7 +9299,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5">
       <c r="A429" s="7" t="s">
         <v>437</v>
       </c>
@@ -9290,7 +9316,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5">
       <c r="A430" s="7" t="s">
         <v>438</v>
       </c>
@@ -9307,7 +9333,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5">
       <c r="A431" s="7" t="s">
         <v>439</v>
       </c>
@@ -9324,7 +9350,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5">
       <c r="A432" s="7" t="s">
         <v>440</v>
       </c>
@@ -9341,7 +9367,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5">
       <c r="A433" s="7" t="s">
         <v>441</v>
       </c>
@@ -9358,7 +9384,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5">
       <c r="A434" s="7" t="s">
         <v>441</v>
       </c>
@@ -9375,7 +9401,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5">
       <c r="A435" s="7" t="s">
         <v>442</v>
       </c>
@@ -9392,7 +9418,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5">
       <c r="A436" s="7" t="s">
         <v>443</v>
       </c>
@@ -9409,7 +9435,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5">
       <c r="A437" s="7" t="s">
         <v>442</v>
       </c>
@@ -9426,7 +9452,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5">
       <c r="A438" s="7" t="s">
         <v>442</v>
       </c>
@@ -9443,7 +9469,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5">
       <c r="A439" s="7" t="s">
         <v>444</v>
       </c>
@@ -9460,7 +9486,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5">
       <c r="A440" s="7" t="s">
         <v>445</v>
       </c>
@@ -9477,7 +9503,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5">
       <c r="A441" s="7" t="s">
         <v>446</v>
       </c>
@@ -9494,7 +9520,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5">
       <c r="A442" s="7" t="s">
         <v>447</v>
       </c>
@@ -9511,7 +9537,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5">
       <c r="A443" s="7" t="s">
         <v>447</v>
       </c>
@@ -9528,7 +9554,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5">
       <c r="A444" s="7" t="s">
         <v>448</v>
       </c>
@@ -9545,7 +9571,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5">
       <c r="A445" s="7" t="s">
         <v>449</v>
       </c>
@@ -9562,7 +9588,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5">
       <c r="A446" s="7" t="s">
         <v>450</v>
       </c>
@@ -9579,7 +9605,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5">
       <c r="A447" s="7" t="s">
         <v>450</v>
       </c>
@@ -9596,7 +9622,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5">
       <c r="A448" s="7" t="s">
         <v>451</v>
       </c>
@@ -9613,7 +9639,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5">
       <c r="A449" s="7" t="s">
         <v>452</v>
       </c>
@@ -9630,7 +9656,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5">
       <c r="A450" s="7" t="s">
         <v>453</v>
       </c>
@@ -9647,7 +9673,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5">
       <c r="A451" s="7" t="s">
         <v>454</v>
       </c>
@@ -9664,7 +9690,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5">
       <c r="A452" s="7" t="s">
         <v>455</v>
       </c>
@@ -9681,7 +9707,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5">
       <c r="A453" s="7" t="s">
         <v>456</v>
       </c>
@@ -9698,7 +9724,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5">
       <c r="A454" s="7" t="s">
         <v>457</v>
       </c>
@@ -9715,7 +9741,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5">
       <c r="A455" s="7" t="s">
         <v>458</v>
       </c>
@@ -9732,7 +9758,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5">
       <c r="A456" s="7" t="s">
         <v>459</v>
       </c>
@@ -9749,7 +9775,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5">
       <c r="A457" s="7" t="s">
         <v>459</v>
       </c>
@@ -9766,7 +9792,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5">
       <c r="A458" s="7" t="s">
         <v>459</v>
       </c>
@@ -9783,7 +9809,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5">
       <c r="A459" s="7" t="s">
         <v>460</v>
       </c>
@@ -9800,7 +9826,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5">
       <c r="A460" s="7" t="s">
         <v>461</v>
       </c>
@@ -9817,7 +9843,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5">
       <c r="A461" s="7" t="s">
         <v>461</v>
       </c>
@@ -9834,7 +9860,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5">
       <c r="A462" s="7" t="s">
         <v>461</v>
       </c>
@@ -9851,7 +9877,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5">
       <c r="A463" s="7" t="s">
         <v>462</v>
       </c>
@@ -9868,7 +9894,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5">
       <c r="A464" s="7" t="s">
         <v>463</v>
       </c>
@@ -9885,7 +9911,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5">
       <c r="A465" s="7" t="s">
         <v>464</v>
       </c>
@@ -9902,7 +9928,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5">
       <c r="A466" s="7" t="s">
         <v>465</v>
       </c>
@@ -9919,7 +9945,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5">
       <c r="A467" s="7" t="s">
         <v>466</v>
       </c>
@@ -9936,7 +9962,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5">
       <c r="A468" s="7" t="s">
         <v>467</v>
       </c>
@@ -9953,7 +9979,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5">
       <c r="A469" s="7" t="s">
         <v>467</v>
       </c>
@@ -9970,7 +9996,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5">
       <c r="A470" s="7" t="s">
         <v>468</v>
       </c>
@@ -9987,7 +10013,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5">
       <c r="A471" s="7" t="s">
         <v>469</v>
       </c>
@@ -10004,7 +10030,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5">
       <c r="A472" s="7" t="s">
         <v>470</v>
       </c>
@@ -10021,7 +10047,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5">
       <c r="A473" s="7" t="s">
         <v>470</v>
       </c>
@@ -10038,7 +10064,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5">
       <c r="A474" s="7" t="s">
         <v>471</v>
       </c>
@@ -10055,7 +10081,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5">
       <c r="A475" s="7" t="s">
         <v>472</v>
       </c>
@@ -10072,7 +10098,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5">
       <c r="A476" s="7" t="s">
         <v>472</v>
       </c>
@@ -10089,7 +10115,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5">
       <c r="A477" s="7" t="s">
         <v>473</v>
       </c>
@@ -10106,7 +10132,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5">
       <c r="A478" s="7" t="s">
         <v>474</v>
       </c>
@@ -10123,7 +10149,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5">
       <c r="A479" s="7" t="s">
         <v>474</v>
       </c>
@@ -10140,7 +10166,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5">
       <c r="A480" s="7" t="s">
         <v>475</v>
       </c>
@@ -10157,7 +10183,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5">
       <c r="A481" s="7" t="s">
         <v>476</v>
       </c>
@@ -10174,7 +10200,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5">
       <c r="A482" s="7" t="s">
         <v>477</v>
       </c>
@@ -10191,7 +10217,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5">
       <c r="A483" s="7" t="s">
         <v>477</v>
       </c>
@@ -10208,7 +10234,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5">
       <c r="A484" s="7" t="s">
         <v>478</v>
       </c>
@@ -10225,7 +10251,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5">
       <c r="A485" s="7" t="s">
         <v>479</v>
       </c>
@@ -10242,7 +10268,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5">
       <c r="A486" s="7" t="s">
         <v>480</v>
       </c>
@@ -10259,7 +10285,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5">
       <c r="A487" s="7" t="s">
         <v>481</v>
       </c>
@@ -10276,7 +10302,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5">
       <c r="A488" s="7" t="s">
         <v>482</v>
       </c>
@@ -10293,7 +10319,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5">
       <c r="A489" s="7" t="s">
         <v>483</v>
       </c>
@@ -10310,7 +10336,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5">
       <c r="A490" s="7" t="s">
         <v>484</v>
       </c>
@@ -10327,7 +10353,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5">
       <c r="A491" s="7" t="s">
         <v>485</v>
       </c>
@@ -10344,7 +10370,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5">
       <c r="A492" s="7" t="s">
         <v>484</v>
       </c>
@@ -10361,7 +10387,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5">
       <c r="A493" s="7" t="s">
         <v>486</v>
       </c>
@@ -10378,7 +10404,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5">
       <c r="A494" s="7" t="s">
         <v>486</v>
       </c>
@@ -10395,7 +10421,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5">
       <c r="A495" s="7" t="s">
         <v>487</v>
       </c>
@@ -10412,7 +10438,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5">
       <c r="A496" s="7" t="s">
         <v>488</v>
       </c>
@@ -10429,7 +10455,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5">
       <c r="A497" s="7" t="s">
         <v>488</v>
       </c>
@@ -10446,7 +10472,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5">
       <c r="A498" s="7" t="s">
         <v>489</v>
       </c>
@@ -10463,7 +10489,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5">
       <c r="A499" s="7" t="s">
         <v>490</v>
       </c>
@@ -10480,7 +10506,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5">
       <c r="A500" s="7" t="s">
         <v>491</v>
       </c>
@@ -10497,7 +10523,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5">
       <c r="A501" s="7" t="s">
         <v>492</v>
       </c>
@@ -10514,7 +10540,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5">
       <c r="A502" s="7" t="s">
         <v>493</v>
       </c>
@@ -10531,7 +10557,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5">
       <c r="A503" s="7" t="s">
         <v>493</v>
       </c>
@@ -10548,7 +10574,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5">
       <c r="A504" s="7" t="s">
         <v>494</v>
       </c>
@@ -10565,7 +10591,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5">
       <c r="A505" s="7" t="s">
         <v>495</v>
       </c>
@@ -10582,7 +10608,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5">
       <c r="A506" s="7" t="s">
         <v>495</v>
       </c>
@@ -10599,7 +10625,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5">
       <c r="A507" s="7" t="s">
         <v>496</v>
       </c>
@@ -10616,7 +10642,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5">
       <c r="A508" s="7" t="s">
         <v>496</v>
       </c>
@@ -10633,7 +10659,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5">
       <c r="A509" s="7" t="s">
         <v>497</v>
       </c>
@@ -10650,7 +10676,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5">
       <c r="A510" s="7" t="s">
         <v>497</v>
       </c>
@@ -10667,7 +10693,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5">
       <c r="A511" s="7" t="s">
         <v>498</v>
       </c>
@@ -10684,7 +10710,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5">
       <c r="A512" s="7" t="s">
         <v>499</v>
       </c>
@@ -10701,7 +10727,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5">
       <c r="A513" s="7" t="s">
         <v>500</v>
       </c>
@@ -10718,7 +10744,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5">
       <c r="A514" s="7" t="s">
         <v>499</v>
       </c>
@@ -10735,7 +10761,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5">
       <c r="A515" s="7" t="s">
         <v>499</v>
       </c>
@@ -10752,7 +10778,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5">
       <c r="A516" s="7" t="s">
         <v>501</v>
       </c>
@@ -10769,7 +10795,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5">
       <c r="A517" s="7" t="s">
         <v>501</v>
       </c>
@@ -10786,7 +10812,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5">
       <c r="A518" s="7" t="s">
         <v>502</v>
       </c>
@@ -10803,7 +10829,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5">
       <c r="A519" s="7" t="s">
         <v>503</v>
       </c>
@@ -10820,7 +10846,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5">
       <c r="A520" s="7" t="s">
         <v>504</v>
       </c>
@@ -10837,7 +10863,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5">
       <c r="A521" s="7" t="s">
         <v>505</v>
       </c>
@@ -10854,7 +10880,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5">
       <c r="A522" s="7" t="s">
         <v>506</v>
       </c>
@@ -10871,7 +10897,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5">
       <c r="A523" s="7" t="s">
         <v>507</v>
       </c>
@@ -10888,7 +10914,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5">
       <c r="A524" s="7" t="s">
         <v>508</v>
       </c>
@@ -10905,7 +10931,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5">
       <c r="A525" s="7" t="s">
         <v>509</v>
       </c>
@@ -10922,7 +10948,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5">
       <c r="A526" s="7" t="s">
         <v>509</v>
       </c>
@@ -10939,7 +10965,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5">
       <c r="A527" s="7" t="s">
         <v>510</v>
       </c>
@@ -10956,7 +10982,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5">
       <c r="A528" s="7" t="s">
         <v>511</v>
       </c>
@@ -10973,7 +10999,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5">
       <c r="A529" s="7" t="s">
         <v>512</v>
       </c>
@@ -10990,7 +11016,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5">
       <c r="A530" s="7" t="s">
         <v>513</v>
       </c>
@@ -11007,7 +11033,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5">
       <c r="A531" s="7" t="s">
         <v>514</v>
       </c>
@@ -11024,7 +11050,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5">
       <c r="A532" s="7" t="s">
         <v>515</v>
       </c>
@@ -11041,7 +11067,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5">
       <c r="A533" s="7" t="s">
         <v>516</v>
       </c>
@@ -11058,7 +11084,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5">
       <c r="A534" s="7" t="s">
         <v>517</v>
       </c>
@@ -11075,7 +11101,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5">
       <c r="A535" s="7" t="s">
         <v>518</v>
       </c>
@@ -11092,7 +11118,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5">
       <c r="A536" s="7" t="s">
         <v>519</v>
       </c>
@@ -11109,7 +11135,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5">
       <c r="A537" s="7" t="s">
         <v>520</v>
       </c>
@@ -11126,7 +11152,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5">
       <c r="A538" s="7" t="s">
         <v>521</v>
       </c>
@@ -11143,7 +11169,10 @@
         <v>520</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5">
+      <c r="A539" s="11" t="s">
+        <v>522</v>
+      </c>
       <c r="B539" s="11" t="s">
         <v>515</v>
       </c>
@@ -11157,7 +11186,10 @@
         <v>521</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5">
+      <c r="A540" s="11" t="s">
+        <v>523</v>
+      </c>
       <c r="B540" s="11" t="s">
         <v>516</v>
       </c>
@@ -11165,7 +11197,10 @@
         <v>519</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5">
+      <c r="A541" s="11" t="s">
+        <v>524</v>
+      </c>
       <c r="B541" s="11" t="s">
         <v>517</v>
       </c>
@@ -11173,7 +11208,10 @@
         <v>520</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5">
+      <c r="A542" s="11" t="s">
+        <v>525</v>
+      </c>
       <c r="B542" s="11" t="s">
         <v>518</v>
       </c>
@@ -11181,19 +11219,33 @@
         <v>521</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5">
+      <c r="A543" s="11" t="s">
+        <v>526</v>
+      </c>
       <c r="B543" s="11" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5">
+      <c r="A544" s="12" t="s">
+        <v>527</v>
+      </c>
       <c r="B544" s="11" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2">
+      <c r="A545" s="12" t="s">
+        <v>528</v>
+      </c>
       <c r="B545" s="11" t="s">
         <v>521</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="12" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
